--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
-    <sheet name="TextData" sheetId="2" r:id="rId2"/>
+    <sheet name="StageEvents" sheetId="3" r:id="rId2"/>
+    <sheet name="TextData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +25,15 @@
   </si>
   <si>
     <t>Turns</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Param</t>
   </si>
   <si>
     <t>Text</t>
@@ -51,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +72,104 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,102 +182,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -180,14 +206,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,14 +218,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,25 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,114 +402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,42 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,24 +424,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,8 +451,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,10 +1037,248 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1044,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="143" spans="1:3">
@@ -1055,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -61,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -75,50 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,6 +83,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,17 +135,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,8 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +182,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +204,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -189,33 +213,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,6 +228,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,169 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,10 +424,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -451,32 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +493,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,16 +527,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,124 +548,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1037,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1264,6 +1264,227 @@
       </c>
       <c r="E13">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +72,35 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,10 +126,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,6 +157,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -120,58 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -180,6 +181,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,25 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,39 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +499,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1037,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1135,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>1</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1475,15 +1475,117 @@
         <v>1</v>
       </c>
       <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="E26">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,22 +75,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +113,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -112,15 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,24 +161,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,33 +183,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,20 +218,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,62 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1037,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1587,6 +1587,40 @@
       </c>
       <c r="E32">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Param</t>
+  </si>
+  <si>
+    <t>ReadFlag</t>
   </si>
   <si>
     <t>Text</t>
@@ -61,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,47 +78,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +100,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -159,9 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +154,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +185,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,85 +231,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,60 +393,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,30 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,15 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +441,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -457,21 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,7 +507,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,16 +530,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,127 +548,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,15 +1040,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1064,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,8 +1084,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1095,8 +1104,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1112,8 +1124,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1129,8 +1144,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1146,8 +1164,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1163,8 +1184,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1180,8 +1204,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1197,8 +1224,11 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1214,8 +1244,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1231,8 +1264,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1248,8 +1284,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1265,8 +1304,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1282,8 +1324,11 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1299,8 +1344,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1316,8 +1364,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1333,8 +1384,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1350,8 +1404,11 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1367,8 +1424,11 @@
       <c r="E19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1384,8 +1444,11 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1401,8 +1464,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1418,8 +1484,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1435,8 +1504,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1452,8 +1524,11 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1469,8 +1544,11 @@
       <c r="E25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1486,8 +1564,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1520,8 +1604,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1537,8 +1624,11 @@
       <c r="E29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1554,8 +1644,11 @@
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1571,8 +1664,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1588,8 +1684,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1605,8 +1704,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1620,6 +1722,169 @@
         <v>5</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
@@ -1649,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="143" spans="1:3">
@@ -1660,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -64,15 +64,59 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -86,24 +130,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,14 +147,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -138,16 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -171,43 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -231,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,7 +444,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +484,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,24 +514,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -530,16 +530,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,127 +548,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1613,16 +1613,16 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1633,19 +1633,19 @@
         <v>1</v>
       </c>
       <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1653,39 +1653,39 @@
         <v>1</v>
       </c>
       <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1693,39 +1693,39 @@
         <v>1</v>
       </c>
       <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1733,158 +1733,58 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>7</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>26</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>26</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +75,50 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,21 +138,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,9 +191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,89 +215,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,13 +231,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,31 +327,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,133 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,54 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +449,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,13 +490,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,145 +530,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1453,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1493,19 +1493,19 @@
         <v>1</v>
       </c>
       <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1513,19 +1513,19 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1533,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1553,39 +1553,39 @@
         <v>1</v>
       </c>
       <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1593,39 +1593,39 @@
         <v>1</v>
       </c>
       <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1633,158 +1633,58 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>26</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -64,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -78,6 +78,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -85,13 +121,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -99,8 +129,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,38 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -160,61 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -231,31 +231,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,151 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +422,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,49 +458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,7 +482,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -518,7 +503,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +530,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,127 +548,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1559,36 +1559,36 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1599,28 +1599,28 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
       <c r="E29">
         <v>1</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1639,28 +1639,28 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1679,12 +1679,32 @@
         <v>1</v>
       </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +75,104 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,73 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -168,45 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,79 +231,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,91 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -451,39 +460,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +479,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,145 +530,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1553,13 +1553,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1628,58 +1628,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>7</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1693,19 +1693,99 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
     <sheet name="StageEvents" sheetId="3" r:id="rId2"/>
     <sheet name="TextData" sheetId="2" r:id="rId3"/>
+    <sheet name="Define" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -58,16 +59,43 @@
 導く者(Magister)「\p」に
 成らざる者(Disguised)討伐を命じた。</t>
   </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>コマンドを制限する</t>
+  </si>
+  <si>
+    <t>バトルをチュートリアルで固定する</t>
+  </si>
+  <si>
+    <t>全員コマンドを選ばないと進まない</t>
+  </si>
+  <si>
+    <t>隷従属度フラグを管理</t>
+  </si>
+  <si>
+    <t>アルカナフラグを管理</t>
+  </si>
+  <si>
+    <t>仲間を選んで加入する</t>
+  </si>
+  <si>
+    <t>セーブを行う</t>
+  </si>
+  <si>
+    <t>ボスの選択番号を設定する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,112 +106,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -200,8 +123,90 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,12 +220,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,13 +259,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,169 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +478,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -478,32 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +541,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,145 +558,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1068,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1499,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1519,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1539,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1559,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1573,27 +1601,27 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1613,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1633,39 +1661,39 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>8</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>17</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1673,53 +1701,53 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>7</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>17</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1733,39 +1761,39 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1773,18 +1801,118 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>8</v>
       </c>
-      <c r="E37">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>0</v>
       </c>
     </row>
@@ -1835,4 +1963,98 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,13 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>xxxx チュートリアル</t>
+  </si>
+  <si>
+    <t>実際にプレイしながら
+基本的な遊び方を学びます。</t>
   </si>
   <si>
     <t>3986b 半神のアルケミスト達</t>
@@ -86,6 +93,9 @@
   <si>
     <t>ボスの選択番号を設定する</t>
   </si>
+  <si>
+    <t>ADV再生</t>
+  </si>
 </sst>
 </file>
 
@@ -94,8 +104,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,19 +116,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,38 +131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,17 +153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +185,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +203,37 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,8 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,25 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,157 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,25 +487,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -507,13 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -550,6 +549,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,145 +568,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1056,6 +1066,17 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>36</v>
       </c>
     </row>
@@ -1068,10 +1089,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1201,13 +1222,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1230,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1250,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1270,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1287,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1301,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1318,10 +1339,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1338,10 +1359,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1358,10 +1379,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1378,19 +1399,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1398,16 +1419,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1418,10 +1439,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1438,10 +1459,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1458,10 +1479,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1470,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1478,19 +1499,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1498,10 +1519,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1518,10 +1539,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1538,10 +1559,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1558,10 +1579,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1570,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1578,10 +1599,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1590,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1598,10 +1619,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1618,59 +1639,59 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1678,19 +1699,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1698,150 +1719,150 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1858,10 +1879,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1878,19 +1899,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1898,10 +1919,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1910,9 +1931,229 @@
         <v>8</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="F42">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
         <v>0</v>
       </c>
     </row>
@@ -1925,13 +2166,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.3636363636364" customWidth="1"/>
@@ -1948,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="143" spans="1:3">
+    <row r="2" ht="26" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1957,6 +2198,17 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="143" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1968,10 +2220,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1986,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1994,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2002,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2010,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2018,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2026,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2034,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2042,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2050,7 +2302,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,9 @@
     <t>ボスの選択番号を設定する</t>
   </si>
   <si>
+    <t>SPを消費しないと進まない</t>
+  </si>
+  <si>
     <t>ADV再生</t>
   </si>
 </sst>
@@ -123,11 +126,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,9 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +157,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,22 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,8 +231,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,21 +257,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -269,97 +272,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,67 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,16 +481,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -517,17 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,8 +523,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,7 +571,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,7 +580,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,124 +589,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,10 +1092,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1208,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1228,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1242,19 +1245,19 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1262,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1291,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1311,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1328,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1339,10 +1342,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1351,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1359,10 +1362,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1379,19 +1382,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1399,36 +1402,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1451,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1459,10 +1462,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1471,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1479,10 +1482,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1491,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1499,10 +1502,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1519,19 +1522,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1548,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1568,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1588,47 +1591,47 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1639,62 +1642,62 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
       <c r="D30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1702,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1722,16 +1725,16 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1742,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1762,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1771,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1782,16 +1785,16 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1802,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1822,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1831,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1842,16 +1845,16 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1862,19 +1865,19 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1882,19 +1885,19 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1902,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1922,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1942,39 +1945,39 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1982,19 +1985,19 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2002,39 +2005,39 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2042,19 +2045,19 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2062,39 +2065,39 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2102,19 +2105,19 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2122,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2142,18 +2145,378 @@
         <v>2</v>
       </c>
       <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
         <v>30</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
         <v>8</v>
       </c>
-      <c r="E53">
+      <c r="E71">
         <v>5</v>
       </c>
-      <c r="F53">
+      <c r="F71">
         <v>0</v>
       </c>
     </row>
@@ -2220,7 +2583,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -2307,10 +2670,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -146,30 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -184,9 +160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,10 +191,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,24 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,16 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +245,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +299,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,175 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,26 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,21 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,8 +526,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +590,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,7 +598,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,7 +607,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,127 +616,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1240,7 +1240,7 @@
   <sheetPr/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 基本的な遊び方を学びます。</t>
   </si>
   <si>
-    <t>3986b 半神のアルケミスト達</t>
+    <t>落星前3986年 半神のアルケミスト達</t>
   </si>
   <si>
     <t>栄華を極めた文明・パイリアは
@@ -133,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,13 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -161,7 +154,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,54 +174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +198,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +238,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -276,7 +262,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +282,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,18 +296,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -323,7 +311,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,61 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,55 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +490,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +517,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,24 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,19 +558,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -598,16 +598,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,124 +619,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1238,10 +1238,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2596,7 +2596,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2701,11 +2701,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX(Define!E:E,MATCH(E51,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2813,14 +2813,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2841,17 +2841,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2869,17 +2869,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2897,11 +2897,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2925,14 +2925,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2953,25 +2953,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2981,17 +2981,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3009,17 +3009,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3037,25 +3037,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3065,17 +3065,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3083,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3093,17 +3093,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3121,25 +3121,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>バトルをチュートリアルで固定する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3149,17 +3149,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3177,17 +3177,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3205,14 +3205,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3233,492 +3233,16 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="str">
-        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="str">
-        <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G71">
-        <v>4</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>5</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="str">
-        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72" t="str">
-        <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="str">
-        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73" t="str">
-        <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="str">
-        <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E74">
-        <v>7</v>
-      </c>
-      <c r="F74" t="str">
-        <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>セーブを行う</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="str">
-        <f>INDEX(Define!B:B,MATCH(C75,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75" t="str">
-        <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="str">
-        <f>INDEX(Define!B:B,MATCH(C76,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-      <c r="F76" t="str">
-        <f>INDEX(Define!E:E,MATCH(E76,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="str">
-        <f>INDEX(Define!B:B,MATCH(C77,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E77">
-        <v>5</v>
-      </c>
-      <c r="F77" t="str">
-        <f>INDEX(Define!E:E,MATCH(E77,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:8">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>12</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="str">
-        <f>INDEX(Define!B:B,MATCH(C78,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E78">
-        <v>6</v>
-      </c>
-      <c r="F78" t="str">
-        <f>INDEX(Define!E:E,MATCH(E78,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>12</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="str">
-        <f>INDEX(Define!B:B,MATCH(C79,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E79">
-        <v>7</v>
-      </c>
-      <c r="F79" t="str">
-        <f>INDEX(Define!E:E,MATCH(E79,Define!D:D))</f>
-        <v>セーブを行う</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="str">
-        <f>INDEX(Define!B:B,MATCH(C80,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="F80" t="str">
-        <f>INDEX(Define!E:E,MATCH(E80,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:8">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <v>18</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="str">
-        <f>INDEX(Define!B:B,MATCH(C81,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E81">
-        <v>6</v>
-      </c>
-      <c r="F81" t="str">
-        <f>INDEX(Define!E:E,MATCH(E81,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="str">
-        <f>INDEX(Define!B:B,MATCH(C82,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E82">
-        <v>7</v>
-      </c>
-      <c r="F82" t="str">
-        <f>INDEX(Define!E:E,MATCH(E82,Define!D:D))</f>
-        <v>セーブを行う</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="str">
-        <f>INDEX(Define!B:B,MATCH(C83,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-      <c r="F83" t="str">
-        <f>INDEX(Define!E:E,MATCH(E83,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
-      </c>
-      <c r="G83">
-        <v>3</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:8">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>24</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="str">
-        <f>INDEX(Define!B:B,MATCH(C84,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84" t="str">
-        <f>INDEX(Define!E:E,MATCH(E84,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>24</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="str">
-        <f>INDEX(Define!B:B,MATCH(C85,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E85">
-        <v>7</v>
-      </c>
-      <c r="F85" t="str">
-        <f>INDEX(Define!E:E,MATCH(E85,Define!D:D))</f>
-        <v>セーブを行う</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>24</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="str">
-        <f>INDEX(Define!B:B,MATCH(C86,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E86">
-        <v>8</v>
-      </c>
-      <c r="F86" t="str">
-        <f>INDEX(Define!E:E,MATCH(E86,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
-      </c>
-      <c r="G86">
-        <v>4</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>30</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="str">
-        <f>INDEX(Define!B:B,MATCH(C87,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E87">
-        <v>8</v>
-      </c>
-      <c r="F87" t="str">
-        <f>INDEX(Define!E:E,MATCH(E87,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="H87">
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3258,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -109,6 +109,9 @@
     <t>アルカナフラグを管理</t>
   </si>
   <si>
+    <t>Tactics開始(UI表示前)</t>
+  </si>
+  <si>
     <t>仲間を選んで加入する</t>
   </si>
   <si>
@@ -132,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -146,15 +149,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,21 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -191,16 +195,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +231,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,8 +247,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,29 +278,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -283,10 +285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -299,7 +302,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +398,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,25 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,85 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,11 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,145 +601,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,6 +916,14 @@
           </cell>
           <cell r="B12" t="str">
             <v>Tutorial11</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>101</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Event1</v>
           </cell>
         </row>
       </sheetData>
@@ -1238,10 +1249,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2602,32 +2613,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G48,[1]Advs!A:A))</f>
+        <v>Event1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2635,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2663,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2691,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2708,7 +2723,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2736,7 +2751,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2764,7 +2779,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2792,7 +2807,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2813,14 +2828,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2831,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2841,17 +2856,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2869,11 +2884,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2897,17 +2912,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2925,11 +2940,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2943,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2953,11 +2968,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2966,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2981,20 +2996,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3009,11 +3024,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3037,25 +3052,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3065,20 +3080,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3093,11 +3108,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3121,25 +3136,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3149,20 +3164,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3177,11 +3192,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3205,17 +3220,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3223,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3240,9 +3255,37 @@
         <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="str">
+        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71" t="str">
+        <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G71">
         <v>5</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <v>0</v>
       </c>
     </row>
@@ -3257,8 +3300,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -3312,7 +3355,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3409,12 +3452,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -3422,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -3430,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -3438,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -3446,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -3454,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -127,6 +127,9 @@
     <t>ADV再生</t>
   </si>
   <si>
+    <t>IDにActorIDを加算してADV再生</t>
+  </si>
+  <si>
     <t>ステージ中断</t>
   </si>
 </sst>
@@ -135,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -149,24 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +167,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +219,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,50 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +275,21 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -302,7 +305,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,19 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +395,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,127 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -535,17 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +588,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,145 +604,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -920,10 +923,106 @@
         </row>
         <row r="13">
           <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Tutorial12</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
             <v>101</v>
           </cell>
-          <cell r="B13" t="str">
-            <v>Event1</v>
+          <cell r="B14" t="str">
+            <v>Opening</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>111</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Event1_1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>112</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Event1_2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>113</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Event1_3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>114</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Event1_4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>115</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Event1_5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>121</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Event2_1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>122</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Event2_2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>123</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Event2_3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>124</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Event2_4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>125</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Event2_5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>131</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Stage2_1</v>
           </cell>
         </row>
       </sheetData>
@@ -1249,10 +1348,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2642,7 +2741,7 @@
       </c>
       <c r="I48" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G48,[1]Advs!A:A))</f>
-        <v>Event1</v>
+        <v>Opening</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2650,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2660,17 +2759,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2678,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2706,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2734,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2751,7 +2850,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2779,7 +2878,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2807,7 +2906,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2835,7 +2934,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2856,14 +2955,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2874,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2884,17 +2983,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2902,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2912,20 +3011,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2933,24 +3032,28 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G59,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2968,17 +3071,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2986,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2996,25 +3099,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3024,17 +3127,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3042,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3052,25 +3155,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3080,25 +3183,29 @@
         <v>Tactics開始</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G64,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3108,25 +3215,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3136,11 +3243,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3154,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3164,25 +3271,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3192,25 +3299,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3220,11 +3327,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3238,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3248,17 +3355,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3266,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3283,9 +3390,121 @@
         <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="str">
+        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="str">
+        <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="str">
+        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73" t="str">
+        <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74" t="str">
+        <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <f>INDEX(Define!B:B,MATCH(C75,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" t="str">
+        <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G75">
         <v>5</v>
       </c>
-      <c r="H71">
+      <c r="H75">
         <v>0</v>
       </c>
     </row>
@@ -3300,8 +3519,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -3352,10 +3571,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3500,10 +3719,18 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,30 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,19 +197,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +214,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,8 +251,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,11 +281,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,7 +305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +335,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,139 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -529,17 +544,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,24 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,16 +604,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +622,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,98 +931,250 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>101</v>
+            <v>13</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Opening</v>
+            <v>Tutorial13</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>111</v>
+            <v>101</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Event1_1</v>
+            <v>Opening</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Event1_2</v>
+            <v>Event1_1</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>113</v>
+            <v>112</v>
           </cell>
           <cell r="B17" t="str">
-            <v>Event1_3</v>
+            <v>Event1_2</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>114</v>
+            <v>113</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Event1_4</v>
+            <v>Event1_3</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>115</v>
+            <v>114</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Event1_5</v>
+            <v>Event1_4</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>121</v>
+            <v>115</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Event2_1</v>
+            <v>Event1_5</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>122</v>
+            <v>121</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Event2_2</v>
+            <v>Event2_1</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>123</v>
+            <v>122</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Event2_3</v>
+            <v>Event2_2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>124</v>
+            <v>123</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Event2_4</v>
+            <v>Event2_3</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>125</v>
+            <v>124</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Event2_5</v>
+            <v>Event2_4</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
+            <v>125</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Event2_5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
             <v>131</v>
           </cell>
-          <cell r="B25" t="str">
+          <cell r="B26" t="str">
             <v>Stage2_1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>141</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Event3_1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>142</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Event3_2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>143</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Event3_3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>144</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Event3_4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>145</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Event3_5</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>151</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Event4_1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>152</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Event4_2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>153</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Event4_3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>154</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Event4_4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>155</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Event4_5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>161</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Event5_1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>162</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Event5_2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>163</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Event5_3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>164</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Event5_4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>165</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Event5_5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>171</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Event6_1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>172</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Event6_2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>173</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Event6_3</v>
           </cell>
         </row>
       </sheetData>
@@ -1348,10 +1500,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3200,7 +3352,7 @@
         <v>Tutorial12</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3208,27 +3360,31 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G65,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3243,20 +3399,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3271,11 +3427,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3299,25 +3455,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3327,25 +3483,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3355,20 +3511,24 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ADV再生</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G70,[1]Advs!A:A))</f>
+        <v>Tutorial13</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3383,25 +3543,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3411,11 +3571,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3429,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3439,20 +3599,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" t="str">
         <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3460,32 +3620,36 @@
         <v>24</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D74" t="str">
         <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I74" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G74,[1]Advs!A:A))</f>
+        <v>Event3_5</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3495,17 +3659,133 @@
         <v>Tactics開始</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75" t="str">
         <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <f>INDEX(Define!B:B,MATCH(C76,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" t="str">
+        <f>INDEX(Define!E:E,MATCH(E76,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <f>INDEX(Define!B:B,MATCH(C77,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" t="str">
+        <f>INDEX(Define!E:E,MATCH(E77,Define!D:D))</f>
         <v>ボスの選択番号を設定する</v>
       </c>
-      <c r="G75">
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <f>INDEX(Define!B:B,MATCH(C78,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78" t="str">
+        <f>INDEX(Define!E:E,MATCH(E78,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G78">
         <v>5</v>
       </c>
-      <c r="H75">
-        <v>0</v>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" t="str">
+        <f>INDEX(Define!B:B,MATCH(C79,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79" t="str">
+        <f>INDEX(Define!E:E,MATCH(E79,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G79">
+        <v>160</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G79,[1]Advs!A:A))</f>
+        <v>Event4_5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="18270" windowHeight="7600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,35 +149,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,39 +160,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +182,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -250,11 +198,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,15 +282,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +291,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +353,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,36 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,11 +523,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,15 +588,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,145 +604,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2904,11 +2904,11 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E49">
         <v>12</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="7600" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,21 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -174,24 +159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -205,39 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +211,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -274,8 +258,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +275,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +305,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,25 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,79 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +413,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,34 +547,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -571,6 +573,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,17 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,7 +604,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,7 +613,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +622,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3156,11 +3156,11 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E58">
         <v>12</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>NameId</t>
+  </si>
+  <si>
+    <t>Selectable</t>
   </si>
   <si>
     <t>Turns</t>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>Aルート用</t>
+  </si>
+  <si>
+    <t>テストステージ</t>
   </si>
   <si>
     <t>なし</t>
@@ -177,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,24 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +212,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,12 +273,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -258,71 +319,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +350,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +398,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,109 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +559,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -564,48 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,11 +600,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,145 +649,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,15 +1616,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1634,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1640,54 +1646,63 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1695,22 +1710,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1718,22 +1736,25 @@
         <v>12</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1741,19 +1762,48 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1817,7 @@
   <sheetPr/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -1782,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4774,13 +4824,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.3636363636364" customWidth="1"/>
@@ -4791,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -4802,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -4813,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4824,10 +4874,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4835,10 +4885,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4846,10 +4896,21 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4871,10 +4932,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4882,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4896,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4910,13 +4971,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4924,13 +4985,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4938,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4952,13 +5013,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4966,13 +5027,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -4980,7 +5041,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -4988,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -4996,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -5004,7 +5065,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -5012,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -5020,7 +5081,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -5028,7 +5089,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -5036,7 +5097,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -5044,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -5052,7 +5113,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -5060,7 +5121,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,7 +198,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +249,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +314,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,107 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +350,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +386,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,48 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,19 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,37 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,15 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,50 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,6 +623,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,16 +649,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,127 +667,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1693,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1797,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1817,7 +1817,7 @@
   <sheetPr/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>BGMId</t>
   </si>
   <si>
+    <t>BossBGMId</t>
+  </si>
+  <si>
     <t>Reborn</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>3,4,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>Timing</t>
@@ -177,16 +183,22 @@
   <si>
     <t>継承スキル演出開始</t>
   </si>
+  <si>
+    <t>ステージ移動</t>
+  </si>
+  <si>
+    <t>中ボスを設置する(コマンド制限判定あり)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,31 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,62 +224,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,9 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +248,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +267,91 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,6 +359,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -362,7 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,49 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,41 +553,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +586,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,18 +645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,16 +661,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,127 +679,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1616,15 +1628,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,8 +1661,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1673,10 +1688,13 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1684,25 +1702,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1725,10 +1746,13 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1751,10 +1775,13 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1777,15 +1804,18 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1794,7 +1824,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -1803,6 +1833,154 @@
         <v>3</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
@@ -1815,10 +1993,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1835,16 +2013,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4812,6 +4990,1246 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="str">
+        <f>INDEX(Define!B:B,MATCH(C105,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="str">
+        <f>INDEX(Define!E:E,MATCH(E105,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106" t="str">
+        <f>INDEX(Define!B:B,MATCH(C106,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106" t="str">
+        <f>INDEX(Define!E:E,MATCH(E106,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G106">
+        <v>101</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G106,[1]Advs!A:A))</f>
+        <v>Opening</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107" t="str">
+        <f>INDEX(Define!B:B,MATCH(C107,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E107">
+        <v>12</v>
+      </c>
+      <c r="F107" t="str">
+        <f>INDEX(Define!E:E,MATCH(E107,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G107">
+        <v>110</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108" t="str">
+        <f>INDEX(Define!B:B,MATCH(C108,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+      <c r="F108" t="str">
+        <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G108">
+        <v>51</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G108,[1]Advs!A:A))</f>
+        <v>RebornEffect</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>101</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109" t="str">
+        <f>INDEX(Define!B:B,MATCH(C109,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E109">
+        <v>41</v>
+      </c>
+      <c r="F109" t="str">
+        <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
+        <v>継承スキル演出開始</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>101</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="str">
+        <f>INDEX(Define!B:B,MATCH(C110,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <f>INDEX(Define!E:E,MATCH(E110,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>101</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="str">
+        <f>INDEX(Define!B:B,MATCH(C111,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="str">
+        <f>INDEX(Define!E:E,MATCH(E111,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>101</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="str">
+        <f>INDEX(Define!B:B,MATCH(C112,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="str">
+        <f>INDEX(Define!E:E,MATCH(E112,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>101</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="str">
+        <f>INDEX(Define!B:B,MATCH(C113,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="str">
+        <f>INDEX(Define!E:E,MATCH(E113,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>101</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="str">
+        <f>INDEX(Define!B:B,MATCH(C114,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="str">
+        <f>INDEX(Define!E:E,MATCH(E114,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>101</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="str">
+        <f>INDEX(Define!B:B,MATCH(C115,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="str">
+        <f>INDEX(Define!E:E,MATCH(E115,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>101</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="str">
+        <f>INDEX(Define!B:B,MATCH(C116,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="str">
+        <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>101</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="str">
+        <f>INDEX(Define!B:B,MATCH(C117,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="str">
+        <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>101</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="str">
+        <f>INDEX(Define!B:B,MATCH(C118,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118" t="str">
+        <f>INDEX(Define!E:E,MATCH(E118,Define!D:D))</f>
+        <v>全員コマンドを選ばないと進まない</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>101</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119" t="str">
+        <f>INDEX(Define!B:B,MATCH(C119,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="F119" t="str">
+        <f>INDEX(Define!E:E,MATCH(E119,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G119">
+        <v>120</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>101</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+      <c r="D120" t="str">
+        <f>INDEX(Define!B:B,MATCH(C120,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E120">
+        <v>11</v>
+      </c>
+      <c r="F120" t="str">
+        <f>INDEX(Define!E:E,MATCH(E120,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G120">
+        <v>131</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G120,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>101</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="str">
+        <f>INDEX(Define!B:B,MATCH(C121,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121" t="str">
+        <f>INDEX(Define!E:E,MATCH(E121,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>101</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="str">
+        <f>INDEX(Define!B:B,MATCH(C122,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122" t="str">
+        <f>INDEX(Define!E:E,MATCH(E122,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="str">
+        <f>INDEX(Define!B:B,MATCH(C123,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123" t="str">
+        <f>INDEX(Define!E:E,MATCH(E123,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>101</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="str">
+        <f>INDEX(Define!B:B,MATCH(C124,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E124">
+        <v>51</v>
+      </c>
+      <c r="F124" t="str">
+        <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
+        <v>ステージ移動</v>
+      </c>
+      <c r="G124">
+        <v>102</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>102</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="str">
+        <f>INDEX(Define!B:B,MATCH(C125,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+      <c r="F125" t="str">
+        <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G125">
+        <v>12</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G125,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>102</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="str">
+        <f>INDEX(Define!B:B,MATCH(C126,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E126">
+        <v>61</v>
+      </c>
+      <c r="F126" t="str">
+        <f>INDEX(Define!E:E,MATCH(E126,Define!D:D))</f>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>102</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127" t="str">
+        <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="str">
+        <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G127">
+        <v>140</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>102</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128" t="str">
+        <f>INDEX(Define!B:B,MATCH(C128,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128" t="str">
+        <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G128">
+        <v>140</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G128,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129">
+        <v>102</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="str">
+        <f>INDEX(Define!B:B,MATCH(C129,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" t="str">
+        <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>102</v>
+      </c>
+      <c r="B130">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="str">
+        <f>INDEX(Define!B:B,MATCH(C130,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="F130" t="str">
+        <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>102</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="str">
+        <f>INDEX(Define!B:B,MATCH(C131,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E131">
+        <v>7</v>
+      </c>
+      <c r="F131" t="str">
+        <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>102</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="str">
+        <f>INDEX(Define!B:B,MATCH(C132,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E132">
+        <v>51</v>
+      </c>
+      <c r="F132" t="str">
+        <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
+        <v>ステージ移動</v>
+      </c>
+      <c r="G132">
+        <v>103</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>103</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133" t="str">
+        <f>INDEX(Define!B:B,MATCH(C133,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133" t="str">
+        <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G133">
+        <v>150</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G133,[1]Advs!A:A))</f>
+        <v>Event3_7</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134">
+        <v>103</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="str">
+        <f>INDEX(Define!B:B,MATCH(C134,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134" t="str">
+        <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>103</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="str">
+        <f>INDEX(Define!B:B,MATCH(C135,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135" t="str">
+        <f>INDEX(Define!E:E,MATCH(E135,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>103</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="str">
+        <f>INDEX(Define!B:B,MATCH(C136,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="F136" t="str">
+        <f>INDEX(Define!E:E,MATCH(E136,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>103</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="str">
+        <f>INDEX(Define!B:B,MATCH(C137,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E137">
+        <v>51</v>
+      </c>
+      <c r="F137" t="str">
+        <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
+        <v>ステージ移動</v>
+      </c>
+      <c r="G137">
+        <v>104</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138">
+        <v>104</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="str">
+        <f>INDEX(Define!B:B,MATCH(C138,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="str">
+        <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
+        <v>仲間を選んで加入する</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>104</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="str">
+        <f>INDEX(Define!B:B,MATCH(C139,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139" t="str">
+        <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>104</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="str">
+        <f>INDEX(Define!B:B,MATCH(C140,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+      <c r="F140" t="str">
+        <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>104</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="str">
+        <f>INDEX(Define!B:B,MATCH(C141,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E141">
+        <v>51</v>
+      </c>
+      <c r="F141" t="str">
+        <f>INDEX(Define!E:E,MATCH(E141,Define!D:D))</f>
+        <v>ステージ移動</v>
+      </c>
+      <c r="G141">
+        <v>105</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>105</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="str">
+        <f>INDEX(Define!B:B,MATCH(C142,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+      <c r="F142" t="str">
+        <f>INDEX(Define!E:E,MATCH(E142,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>105</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143" t="str">
+        <f>INDEX(Define!B:B,MATCH(C143,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="F143" t="str">
+        <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G143">
+        <v>160</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G143,[1]Advs!A:A))</f>
+        <v>Event4_7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>105</v>
+      </c>
+      <c r="B144">
+        <v>12</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="str">
+        <f>INDEX(Define!B:B,MATCH(C144,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
+      </c>
+      <c r="F144" t="str">
+        <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
+        <v>ルート分岐パラメータ設定</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>105</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145" t="str">
+        <f>INDEX(Define!B:B,MATCH(C145,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E145">
+        <v>13</v>
+      </c>
+      <c r="F145" t="str">
+        <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
+        <v>ルート分岐イベント</v>
+      </c>
+      <c r="G145">
+        <v>200</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G145,[1]Advs!A:A))</f>
+        <v>Event6_3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>105</v>
+      </c>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="str">
+        <f>INDEX(Define!B:B,MATCH(C146,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146" t="str">
+        <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>105</v>
+      </c>
+      <c r="B147">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <f>INDEX(Define!B:B,MATCH(C147,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E147">
+        <v>31</v>
+      </c>
+      <c r="F147" t="str">
+        <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
+        <v>ルート分岐でステージに移動</v>
+      </c>
+      <c r="G147">
+        <v>11</v>
+      </c>
+      <c r="H147">
         <v>1</v>
       </c>
     </row>
@@ -4824,13 +6242,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.3636363636364" customWidth="1"/>
@@ -4841,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -4852,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -4863,10 +6281,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4874,10 +6292,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4885,10 +6303,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4896,10 +6314,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4907,9 +6325,20 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="143" spans="1:3">
+      <c r="A8" s="1">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4922,20 +6351,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4943,13 +6372,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4957,13 +6386,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4971,13 +6400,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4985,13 +6414,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4999,13 +6428,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5013,13 +6442,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5027,13 +6456,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -5041,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -5049,7 +6478,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -5057,7 +6486,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -5065,7 +6494,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -5073,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -5081,7 +6510,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -5089,7 +6518,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -5097,7 +6526,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -5105,7 +6534,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -5113,7 +6542,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -5121,7 +6550,23 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -189,16 +189,19 @@
   <si>
     <t>中ボスを設置する(コマンド制限判定あり)</t>
   </si>
+  <si>
+    <t>上位者ボスを設置する(コマンド制限判定あり)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,7 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +236,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -270,14 +274,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +307,14 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,9 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +377,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,31 +503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,127 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +589,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,41 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,142 +667,142 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1628,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1725,45 +1728,45 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1772,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1783,16 +1786,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1801,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1812,36 +1815,36 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>101</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>101</v>
@@ -1852,25 +1855,25 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>11</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>101</v>
@@ -1881,28 +1884,28 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1910,78 +1913,20 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>105</v>
-      </c>
-      <c r="B11">
-        <v>101</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>106</v>
-      </c>
-      <c r="B12">
-        <v>101</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1993,10 +1938,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -5801,39 +5746,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>103</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D133" t="str">
         <f>INDEX(Define!B:B,MATCH(C133,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G133">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G133,[1]Advs!A:A))</f>
-        <v>Event3_7</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>103</v>
       </c>
@@ -5841,27 +5782,31 @@
         <v>7</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D134" t="str">
         <f>INDEX(Define!B:B,MATCH(C134,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F134" t="str">
         <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G134,[1]Advs!A:A))</f>
+        <v>Event3_7</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
       <c r="A135">
         <v>103</v>
       </c>
@@ -5876,17 +5821,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F135" t="str">
         <f>INDEX(Define!E:E,MATCH(E135,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5904,17 +5849,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F136" t="str">
         <f>INDEX(Define!E:E,MATCH(E136,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5932,22 +5877,22 @@
         <v>Tactics開始</v>
       </c>
       <c r="E137">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F137" t="str">
         <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G137">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:8">
+    <row r="138" spans="1:8">
       <c r="A138">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -5960,14 +5905,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -5978,7 +5923,7 @@
         <v>104</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5988,20 +5933,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" customHeight="1" spans="1:8">
       <c r="A140">
         <v>104</v>
       </c>
@@ -6016,11 +5961,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F140" t="str">
         <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6044,25 +5989,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E141">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F141" t="str">
         <f>INDEX(Define!E:E,MATCH(E141,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G141">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6072,49 +6017,45 @@
         <v>Tactics開始</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" t="str">
         <f>INDEX(Define!E:E,MATCH(E142,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D143" t="str">
         <f>INDEX(Define!B:B,MATCH(C143,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E143">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F143" t="str">
         <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G143">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H143">
         <v>1</v>
-      </c>
-      <c r="I143" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G143,[1]Advs!A:A))</f>
-        <v>Event4_7</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6122,7 +6063,7 @@
         <v>105</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6132,49 +6073,45 @@
         <v>Tactics開始</v>
       </c>
       <c r="E144">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>105</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D145" t="str">
         <f>INDEX(Define!B:B,MATCH(C145,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E145">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G145">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G145,[1]Advs!A:A))</f>
-        <v>Event6_3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6182,7 +6119,7 @@
         <v>105</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6210,7 +6147,7 @@
         <v>105</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -6220,17 +6157,361 @@
         <v>Tactics開始</v>
       </c>
       <c r="E147">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G147">
+        <v>106</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>106</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <f>INDEX(Define!B:B,MATCH(C148,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E148">
+        <v>61</v>
+      </c>
+      <c r="F148" t="str">
+        <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
+      </c>
+      <c r="G148">
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>106</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149">
         <v>11</v>
       </c>
-      <c r="H147">
-        <v>1</v>
+      <c r="D149" t="str">
+        <f>INDEX(Define!B:B,MATCH(C149,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149" t="str">
+        <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
+        <v>IDにActorIDを加算してADV再生</v>
+      </c>
+      <c r="G149">
+        <v>160</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G149,[1]Advs!A:A))</f>
+        <v>Event4_7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>106</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="str">
+        <f>INDEX(Define!B:B,MATCH(C150,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
+      </c>
+      <c r="F150" t="str">
+        <f>INDEX(Define!E:E,MATCH(E150,Define!D:D))</f>
+        <v>ルート分岐パラメータ設定</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>106</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151" t="str">
+        <f>INDEX(Define!B:B,MATCH(C151,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E151">
+        <v>13</v>
+      </c>
+      <c r="F151" t="str">
+        <f>INDEX(Define!E:E,MATCH(E151,Define!D:D))</f>
+        <v>ルート分岐イベント</v>
+      </c>
+      <c r="G151">
+        <v>200</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G151,[1]Advs!A:A))</f>
+        <v>Event6_3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>106</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="str">
+        <f>INDEX(Define!B:B,MATCH(C152,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152" t="str">
+        <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>106</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="str">
+        <f>INDEX(Define!B:B,MATCH(C153,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E153">
+        <v>51</v>
+      </c>
+      <c r="F153" t="str">
+        <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
+        <v>ステージ移動</v>
+      </c>
+      <c r="G153">
+        <v>111</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="str">
+        <f>INDEX(Define!B:B,MATCH(C154,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E154">
+        <v>32</v>
+      </c>
+      <c r="F154" t="str">
+        <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>111</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="str">
+        <f>INDEX(Define!B:B,MATCH(C155,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E155">
+        <v>32</v>
+      </c>
+      <c r="F155" t="str">
+        <f>INDEX(Define!E:E,MATCH(E155,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>111</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="str">
+        <f>INDEX(Define!B:B,MATCH(C156,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E156">
+        <v>32</v>
+      </c>
+      <c r="F156" t="str">
+        <f>INDEX(Define!E:E,MATCH(E156,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>111</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="str">
+        <f>INDEX(Define!B:B,MATCH(C157,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E157">
+        <v>32</v>
+      </c>
+      <c r="F157" t="str">
+        <f>INDEX(Define!E:E,MATCH(E157,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>111</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="str">
+        <f>INDEX(Define!B:B,MATCH(C158,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E158">
+        <v>32</v>
+      </c>
+      <c r="F158" t="str">
+        <f>INDEX(Define!E:E,MATCH(E158,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>111</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="str">
+        <f>INDEX(Define!B:B,MATCH(C159,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E159">
+        <v>62</v>
+      </c>
+      <c r="F159" t="str">
+        <f>INDEX(Define!E:E,MATCH(E159,Define!D:D))</f>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6351,10 +6632,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -6569,6 +6850,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="22" spans="4:5">
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -181,6 +181,9 @@
     <t>ルート分岐敵グループを生成</t>
   </si>
   <si>
+    <t>表示残りターンをマスターから取得</t>
+  </si>
+  <si>
     <t>継承スキル演出開始</t>
   </si>
   <si>
@@ -198,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,8 +215,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -249,9 +282,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,51 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -320,14 +338,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -348,13 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,25 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +386,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +494,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,79 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +559,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,6 +588,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,32 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,145 +667,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1631,10 +1634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1905,7 +1908,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1926,6 +1929,35 @@
         <v>16</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -1938,10 +1970,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -5510,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>102</v>
       </c>
@@ -5525,29 +5557,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G125">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G125,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>102</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5557,49 +5585,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E126">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F126" t="str">
         <f>INDEX(Define!E:E,MATCH(E126,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ADV再生</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I126" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G126,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>102</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127" t="str">
         <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E127">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F127" t="str">
         <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G127">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5617,11 +5645,11 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" t="str">
         <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ADV再生</v>
       </c>
       <c r="G128">
         <v>140</v>
@@ -5634,7 +5662,7 @@
         <v>Event3_0</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:8">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>102</v>
       </c>
@@ -5642,27 +5670,31 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D129" t="str">
         <f>INDEX(Define!B:B,MATCH(C129,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F129" t="str">
         <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G129,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
       <c r="A130">
         <v>102</v>
       </c>
@@ -5677,17 +5709,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F130" t="str">
         <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5705,17 +5737,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5733,14 +5765,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G132">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -5748,10 +5780,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -5761,52 +5793,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E133">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>103</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D134" t="str">
         <f>INDEX(Define!B:B,MATCH(C134,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E134">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F134" t="str">
         <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G134">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G134,[1]Advs!A:A))</f>
-        <v>Event3_7</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>103</v>
       </c>
@@ -5814,27 +5842,31 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D135" t="str">
         <f>INDEX(Define!B:B,MATCH(C135,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F135" t="str">
         <f>INDEX(Define!E:E,MATCH(E135,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G135,[1]Advs!A:A))</f>
+        <v>Event3_7</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
       <c r="A136">
         <v>103</v>
       </c>
@@ -5849,17 +5881,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F136" t="str">
         <f>INDEX(Define!E:E,MATCH(E136,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5877,17 +5909,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F137" t="str">
         <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5905,14 +5937,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G138">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -5920,10 +5952,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5933,25 +5965,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="H139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>104</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5961,20 +5993,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F140" t="str">
         <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
       <c r="A141">
         <v>104</v>
       </c>
@@ -5989,17 +6021,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F141" t="str">
         <f>INDEX(Define!E:E,MATCH(E141,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6017,17 +6049,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F142" t="str">
         <f>INDEX(Define!E:E,MATCH(E142,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6045,14 +6077,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E143">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F143" t="str">
         <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G143">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -6060,10 +6092,10 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6073,17 +6105,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E144">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6091,7 +6123,7 @@
         <v>105</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6101,14 +6133,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6129,17 +6161,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F146" t="str">
         <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6157,14 +6189,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E147">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G147">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -6172,10 +6204,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -6185,20 +6217,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E148">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F148" t="str">
         <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>106</v>
       </c>
@@ -6206,31 +6238,27 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D149" t="str">
         <f>INDEX(Define!B:B,MATCH(C149,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E149">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F149" t="str">
         <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G149">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G149,[1]Advs!A:A))</f>
-        <v>Event4_7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>106</v>
       </c>
@@ -6238,56 +6266,56 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D150" t="str">
         <f>INDEX(Define!B:B,MATCH(C150,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E150">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F150" t="str">
         <f>INDEX(Define!E:E,MATCH(E150,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G150,[1]Advs!A:A))</f>
+        <v>Event4_7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>106</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D151" t="str">
         <f>INDEX(Define!B:B,MATCH(C151,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F151" t="str">
         <f>INDEX(Define!E:E,MATCH(E151,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G151">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>1</v>
-      </c>
-      <c r="I151" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G151,[1]Advs!A:A))</f>
-        <v>Event6_3</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6298,21 +6326,21 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D152" t="str">
         <f>INDEX(Define!B:B,MATCH(C152,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E152">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F152" t="str">
         <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -6333,14 +6361,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E153">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F153" t="str">
         <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G153">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -6348,10 +6376,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6361,14 +6389,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E154">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F154" t="str">
         <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6379,7 +6407,7 @@
         <v>111</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -6389,14 +6417,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E155">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F155" t="str">
         <f>INDEX(Define!E:E,MATCH(E155,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -6407,7 +6435,7 @@
         <v>111</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6435,7 +6463,7 @@
         <v>111</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6463,7 +6491,7 @@
         <v>111</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6491,7 +6519,7 @@
         <v>111</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6501,16 +6529,240 @@
         <v>Tactics開始</v>
       </c>
       <c r="E159">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F159" t="str">
         <f>INDEX(Define!E:E,MATCH(E159,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>111</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="str">
+        <f>INDEX(Define!B:B,MATCH(C160,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E160">
+        <v>32</v>
+      </c>
+      <c r="F160" t="str">
+        <f>INDEX(Define!E:E,MATCH(E160,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>111</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="str">
+        <f>INDEX(Define!B:B,MATCH(C161,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E161">
+        <v>62</v>
+      </c>
+      <c r="F161" t="str">
+        <f>INDEX(Define!E:E,MATCH(E161,Define!D:D))</f>
         <v>上位者ボスを設置する(コマンド制限判定あり)</v>
       </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>112</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="str">
+        <f>INDEX(Define!B:B,MATCH(C162,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E162">
+        <v>32</v>
+      </c>
+      <c r="F162" t="str">
+        <f>INDEX(Define!E:E,MATCH(E162,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>112</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="str">
+        <f>INDEX(Define!B:B,MATCH(C163,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="str">
+        <f>INDEX(Define!E:E,MATCH(E163,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>112</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="str">
+        <f>INDEX(Define!B:B,MATCH(C164,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="str">
+        <f>INDEX(Define!E:E,MATCH(E164,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>112</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="str">
+        <f>INDEX(Define!B:B,MATCH(C165,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="str">
+        <f>INDEX(Define!E:E,MATCH(E165,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>112</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="str">
+        <f>INDEX(Define!B:B,MATCH(C166,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="str">
+        <f>INDEX(Define!E:E,MATCH(E166,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>112</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="str">
+        <f>INDEX(Define!B:B,MATCH(C167,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167" t="str">
+        <f>INDEX(Define!E:E,MATCH(E167,Define!D:D))</f>
+        <v>全員コマンドを選ばないと進まない</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
         <v>0</v>
       </c>
     </row>
@@ -6632,10 +6884,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -6828,7 +7080,7 @@
     </row>
     <row r="19" spans="4:5">
       <c r="D19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>50</v>
@@ -6836,7 +7088,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -6844,7 +7096,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
@@ -6852,10 +7104,18 @@
     </row>
     <row r="22" spans="4:5">
       <c r="D22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Reborn</t>
+  </si>
+  <si>
+    <t>SubordinateValue</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,11,13,14</t>
@@ -201,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -217,7 +220,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +242,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,36 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,17 +326,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,32 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +371,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,37 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,25 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,43 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,25 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,11 +589,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +620,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,34 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,19 +670,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,124 +691,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1634,15 +1637,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,8 +1673,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1699,8 +1705,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1714,13 +1723,13 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -1728,8 +1737,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -1757,8 +1769,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1786,8 +1801,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1815,8 +1833,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1844,8 +1865,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1873,8 +1897,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1902,8 +1929,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>111</v>
       </c>
@@ -1931,8 +1961,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>112</v>
       </c>
@@ -1958,6 +1991,9 @@
         <v>16</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
     </row>
@@ -1972,7 +2008,7 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A152" workbookViewId="0">
       <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
@@ -1990,16 +2026,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6792,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6803,10 +6839,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6814,10 +6850,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6825,10 +6861,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6836,10 +6872,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6847,10 +6883,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6858,10 +6894,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6869,10 +6905,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6894,10 +6930,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6905,13 +6941,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6919,13 +6955,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6933,13 +6969,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6947,13 +6983,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6961,13 +6997,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6975,13 +7011,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6989,13 +7025,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -7003,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -7011,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -7019,7 +7055,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -7027,7 +7063,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -7035,7 +7071,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -7043,7 +7079,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -7051,7 +7087,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -7059,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -7067,7 +7103,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -7075,7 +7111,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -7083,7 +7119,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -7091,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -7099,7 +7135,7 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -7107,7 +7143,7 @@
         <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -7115,7 +7151,7 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,8 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -233,29 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -272,6 +272,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -279,24 +287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,8 +309,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,39 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,31 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,25 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,43 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,11 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,32 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +619,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,8 +646,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,106 +670,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,37 +796,19 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1639,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1735,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>11</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>80</v>
@@ -2006,10 +2006,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A147" sqref="$A147:$XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6225,14 +6225,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E147">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -6253,20 +6253,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E148">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F148" t="str">
         <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G148">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="H148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>106</v>
       </c>
@@ -6274,27 +6274,31 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D149" t="str">
         <f>INDEX(Define!B:B,MATCH(C149,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E149">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F149" t="str">
         <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="H149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I149" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G149,[1]Advs!A:A))</f>
+        <v>Event4_7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>106</v>
       </c>
@@ -6302,28 +6306,24 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D150" t="str">
         <f>INDEX(Define!B:B,MATCH(C150,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E150">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F150" t="str">
         <f>INDEX(Define!E:E,MATCH(E150,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G150">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>1</v>
-      </c>
-      <c r="I150" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G150,[1]Advs!A:A))</f>
-        <v>Event4_7</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6331,24 +6331,24 @@
         <v>106</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D151" t="str">
         <f>INDEX(Define!B:B,MATCH(C151,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E151">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F151" t="str">
         <f>INDEX(Define!E:E,MATCH(E151,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -6362,21 +6362,21 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D152" t="str">
         <f>INDEX(Define!B:B,MATCH(C152,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E152">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F152" t="str">
         <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G152">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -6397,14 +6397,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E153">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F153" t="str">
         <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6425,14 +6425,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E154">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F154" t="str">
         <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G154">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6453,14 +6453,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E155">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F155" t="str">
         <f>INDEX(Define!E:E,MATCH(E155,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G155">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -6471,7 +6471,7 @@
         <v>111</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6499,7 +6499,7 @@
         <v>111</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6527,7 +6527,7 @@
         <v>111</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>111</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>111</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -6593,25 +6593,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E160">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F160" t="str">
         <f>INDEX(Define!E:E,MATCH(E160,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -6621,17 +6621,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E161">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F161" t="str">
         <f>INDEX(Define!E:E,MATCH(E161,Define!D:D))</f>
-        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6649,17 +6649,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E162">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F162" t="str">
         <f>INDEX(Define!E:E,MATCH(E162,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -6761,44 +6761,16 @@
         <v>Tactics開始</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F166" t="str">
         <f>INDEX(Define!E:E,MATCH(E166,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167">
-        <v>112</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="str">
-        <f>INDEX(Define!B:B,MATCH(C167,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E167">
-        <v>3</v>
-      </c>
-      <c r="F167" t="str">
-        <f>INDEX(Define!E:E,MATCH(E167,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,9 +218,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +254,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,15 +308,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,14 +334,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -288,53 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,13 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,7 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +455,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,25 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +589,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,30 +638,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -670,16 +670,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,127 +688,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,370 +1006,354 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>51</v>
+            <v>21</v>
           </cell>
           <cell r="B15" t="str">
-            <v>RebornEffect</v>
+            <v>Gameover</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>101</v>
+            <v>51</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Opening</v>
+            <v>RebornEffect</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>111</v>
+            <v>101</v>
           </cell>
           <cell r="B17" t="str">
-            <v>Event1_1</v>
+            <v>Opening</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>112</v>
+            <v>102</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Event1_2</v>
+            <v>Event2</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>113</v>
+            <v>103</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Event1_3</v>
+            <v>Event3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>114</v>
+            <v>202</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Event1_4</v>
+            <v>Event4_1</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>115</v>
+            <v>121</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Event1_5</v>
+            <v>Event4_2</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>116</v>
+            <v>123</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Event1_6</v>
+            <v>Turnover</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>117</v>
+            <v>151</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Event1_7</v>
+            <v>Ending</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>121</v>
+            <v>1001</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Event2_1</v>
+            <v>Actor0001_1</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>122</v>
+            <v>1002</v>
           </cell>
           <cell r="B25" t="str">
-            <v>Event2_2</v>
+            <v>Actor0002_1</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>123</v>
+            <v>1003</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Event2_3</v>
+            <v>Actor0003_1</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>124</v>
+            <v>1004</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Event2_4</v>
+            <v>Actor0004_1</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>125</v>
+            <v>1005</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Event2_5</v>
+            <v>Actor0005_1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>126</v>
+            <v>1006</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Event2_6</v>
+            <v>Actor0006_1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>127</v>
+            <v>1007</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Event2_7</v>
+            <v>Actor0007_1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>131</v>
+            <v>2001</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Stage2_1</v>
+            <v>Actor0001_2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>140</v>
+            <v>2002</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Event3_0</v>
+            <v>Actor0002_2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>141</v>
+            <v>2003</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Event3_1</v>
+            <v>Actor0003_2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>142</v>
+            <v>2004</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Event3_2</v>
+            <v>Actor0004_2</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>143</v>
+            <v>2005</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Event3_3</v>
+            <v>Actor0005_2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>144</v>
+            <v>2006</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Event3_4</v>
+            <v>Actor0006_2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>145</v>
+            <v>2007</v>
           </cell>
           <cell r="B37" t="str">
-            <v>Event3_5</v>
+            <v>Actor0007_2</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>146</v>
+            <v>3001</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Event3_6</v>
+            <v>Actor0001_3</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>147</v>
+            <v>3002</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Event3_7</v>
+            <v>Actor0002_3</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>151</v>
+            <v>3003</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Event4_1</v>
+            <v>Actor0003_3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>152</v>
+            <v>3004</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Event4_2</v>
+            <v>Actor0004_3</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>153</v>
+            <v>3005</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Event4_3</v>
+            <v>Actor0005_3</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>154</v>
+            <v>3006</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Event4_4</v>
+            <v>Actor0006_3</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>155</v>
+            <v>3007</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Event4_5</v>
+            <v>Actor0007_3</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>156</v>
+            <v>4001</v>
           </cell>
           <cell r="B45" t="str">
-            <v>Event4_6</v>
+            <v>Actor0001_4</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>157</v>
+            <v>4002</v>
           </cell>
           <cell r="B46" t="str">
-            <v>Event4_7</v>
+            <v>Actor0002_4</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>161</v>
+            <v>4003</v>
           </cell>
           <cell r="B47" t="str">
-            <v>Event5_1</v>
+            <v>Actor0003_4</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>162</v>
+            <v>4004</v>
           </cell>
           <cell r="B48" t="str">
-            <v>Event5_2</v>
+            <v>Actor0004_4</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>163</v>
+            <v>4005</v>
           </cell>
           <cell r="B49" t="str">
-            <v>Event5_3</v>
+            <v>Actor0005_4</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>164</v>
+            <v>4006</v>
           </cell>
           <cell r="B50" t="str">
-            <v>Event5_4</v>
+            <v>Actor0006_4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>165</v>
+            <v>4007</v>
           </cell>
           <cell r="B51" t="str">
-            <v>Event5_5</v>
+            <v>Actor0007_4</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>166</v>
+            <v>5001</v>
           </cell>
           <cell r="B52" t="str">
-            <v>Event5_6</v>
+            <v>Actor0001_5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>167</v>
+            <v>5002</v>
           </cell>
           <cell r="B53" t="str">
-            <v>Event5_7</v>
+            <v>Actor0002_5</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>171</v>
+            <v>5003</v>
           </cell>
           <cell r="B54" t="str">
-            <v>Event6_1</v>
+            <v>Actor0003_5</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>172</v>
+            <v>5004</v>
           </cell>
           <cell r="B55" t="str">
-            <v>Event6_2</v>
+            <v>Actor0004_5</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>173</v>
+            <v>5005</v>
           </cell>
           <cell r="B56" t="str">
-            <v>Event6_3</v>
+            <v>Actor0005_5</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>201</v>
+            <v>5006</v>
           </cell>
           <cell r="B57" t="str">
-            <v>RouteSelect1</v>
+            <v>Actor0006_5</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>202</v>
+            <v>5007</v>
           </cell>
           <cell r="B58" t="str">
-            <v>RouteSelect2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>203</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>Gameover</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>204</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>Turnover</v>
+            <v>Actor0007_5</v>
           </cell>
         </row>
       </sheetData>
@@ -2006,10 +1990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A147" sqref="$A147:$XFD147"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3715,7 +3699,7 @@
       </c>
       <c r="I59" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G59,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3891,7 +3875,7 @@
       </c>
       <c r="I65" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G65,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3923,7 +3907,7 @@
       </c>
       <c r="I66" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G66,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4183,7 +4167,7 @@
       </c>
       <c r="I75" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G75,[1]Advs!A:A))</f>
-        <v>Event3_7</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:8">
@@ -4327,7 +4311,7 @@
       </c>
       <c r="I80" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G80,[1]Advs!A:A))</f>
-        <v>Event4_7</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4387,7 +4371,7 @@
       </c>
       <c r="I82" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G82,[1]Advs!A:A))</f>
-        <v>Event6_3</v>
+        <v>Event3</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5088,42 +5072,38 @@
         <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G107">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>101</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX(Define!B:B,MATCH(C108,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F108" t="str">
         <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G108">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G108,[1]Advs!A:A))</f>
-        <v>RebornEffect</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5131,27 +5111,27 @@
         <v>101</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX(Define!B:B,MATCH(C109,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E109">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F109" t="str">
         <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
-        <v>継承スキル演出開始</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5159,7 +5139,7 @@
         <v>101</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5187,7 +5167,7 @@
         <v>101</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5215,7 +5195,7 @@
         <v>101</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5232,7 +5212,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5243,7 +5223,7 @@
         <v>101</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5260,7 +5240,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5288,7 +5268,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5316,7 +5296,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5337,14 +5317,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="str">
         <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5358,52 +5338,56 @@
         <v>6</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D117" t="str">
         <f>INDEX(Define!B:B,MATCH(C117,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F117" t="str">
         <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>101</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D118" t="str">
         <f>INDEX(Define!B:B,MATCH(C118,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F118" t="str">
         <f>INDEX(Define!E:E,MATCH(E118,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>ADV再生</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I118" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G118,[1]Advs!A:A))</f>
+        <v>Event2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5411,30 +5395,30 @@
         <v>101</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D119" t="str">
         <f>INDEX(Define!B:B,MATCH(C119,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F119" t="str">
         <f>INDEX(Define!E:E,MATCH(E119,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G119">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>101</v>
       </c>
@@ -5442,28 +5426,24 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D120" t="str">
         <f>INDEX(Define!B:B,MATCH(C120,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F120" t="str">
         <f>INDEX(Define!E:E,MATCH(E120,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G120">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G120,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5481,11 +5461,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F121" t="str">
         <f>INDEX(Define!E:E,MATCH(E121,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -5509,25 +5489,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F122" t="str">
         <f>INDEX(Define!E:E,MATCH(E122,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5537,25 +5517,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F123" t="str">
         <f>INDEX(Define!E:E,MATCH(E123,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5565,17 +5545,21 @@
         <v>Tactics開始</v>
       </c>
       <c r="E124">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F124" t="str">
         <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ADV再生</v>
       </c>
       <c r="G124">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H124">
         <v>1</v>
+      </c>
+      <c r="I124" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G124,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5583,7 +5567,7 @@
         <v>102</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5593,11 +5577,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -5611,14 +5595,14 @@
         <v>102</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D126" t="str">
         <f>INDEX(Define!B:B,MATCH(C126,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E126">
         <v>11</v>
@@ -5628,45 +5612,49 @@
         <v>ADV再生</v>
       </c>
       <c r="G126">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G126,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>Event3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>102</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D127" t="str">
         <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E127">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F127" t="str">
         <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I127" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
+        <v>Actor0007_2</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
       <c r="A128">
         <v>102</v>
       </c>
@@ -5674,31 +5662,27 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D128" t="str">
         <f>INDEX(Define!B:B,MATCH(C128,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E128">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F128" t="str">
         <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G128">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
-      <c r="I128" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G128,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>102</v>
       </c>
@@ -5706,31 +5690,27 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D129" t="str">
         <f>INDEX(Define!B:B,MATCH(C129,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F129" t="str">
         <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G129">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G129,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>102</v>
       </c>
@@ -5745,11 +5725,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F130" t="str">
         <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -5773,25 +5753,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5801,53 +5781,57 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>7</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D133" t="str">
         <f>INDEX(Define!B:B,MATCH(C133,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E133">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G133">
-        <v>103</v>
+        <v>4000</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G133,[1]Advs!A:A))</f>
+        <v>Actor0007_3</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
       <c r="A134">
         <v>103</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -5857,20 +5841,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E134">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F134" t="str">
         <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>103</v>
       </c>
@@ -5878,31 +5862,27 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D135" t="str">
         <f>INDEX(Define!B:B,MATCH(C135,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E135">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F135" t="str">
         <f>INDEX(Define!E:E,MATCH(E135,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G135">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G135,[1]Advs!A:A))</f>
-        <v>Event3_7</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>103</v>
       </c>
@@ -5917,11 +5897,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F136" t="str">
         <f>INDEX(Define!E:E,MATCH(E136,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -5945,25 +5925,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F137" t="str">
         <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5973,22 +5953,22 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
       <c r="A139">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -6001,14 +5981,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G139">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -6019,7 +5999,7 @@
         <v>104</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6029,20 +6009,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E140">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F140" t="str">
         <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:8">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>104</v>
       </c>
@@ -6057,11 +6037,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F141" t="str">
         <f>INDEX(Define!E:E,MATCH(E141,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -6085,25 +6065,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F142" t="str">
         <f>INDEX(Define!E:E,MATCH(E142,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -6113,22 +6093,22 @@
         <v>Tactics開始</v>
       </c>
       <c r="E143">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F143" t="str">
         <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -6141,17 +6121,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E144">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G144">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6159,7 +6139,7 @@
         <v>105</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6169,25 +6149,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E145">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6197,11 +6177,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E146">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F146" t="str">
         <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G146">
         <v>5</v>
@@ -6210,32 +6190,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:9">
       <c r="A147">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D147" t="str">
         <f>INDEX(Define!B:B,MATCH(C147,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E147">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G147">
-        <v>106</v>
+        <v>5000</v>
       </c>
       <c r="H147">
         <v>1</v>
+      </c>
+      <c r="I147" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G147,[1]Advs!A:A))</f>
+        <v>Actor0007_4</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6253,25 +6237,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E148">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F148" t="str">
         <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>106</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149">
         <v>11</v>
@@ -6281,21 +6265,17 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F149" t="str">
         <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G149">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H149">
         <v>1</v>
-      </c>
-      <c r="I149" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G149,[1]Advs!A:A))</f>
-        <v>Event4_7</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6303,7 +6283,7 @@
         <v>106</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6313,14 +6293,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E150">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F150" t="str">
         <f>INDEX(Define!E:E,MATCH(E150,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6334,21 +6314,21 @@
         <v>7</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D151" t="str">
         <f>INDEX(Define!B:B,MATCH(C151,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E151">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F151" t="str">
         <f>INDEX(Define!E:E,MATCH(E151,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G151">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -6356,10 +6336,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6369,14 +6349,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E152">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F152" t="str">
         <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -6384,10 +6364,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -6397,14 +6377,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E153">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F153" t="str">
         <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G153">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -6415,7 +6395,7 @@
         <v>111</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6425,14 +6405,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E154">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F154" t="str">
         <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6443,7 +6423,7 @@
         <v>111</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -6471,7 +6451,7 @@
         <v>111</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6499,7 +6479,7 @@
         <v>111</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6527,7 +6507,7 @@
         <v>111</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6537,25 +6517,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E158">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F158" t="str">
         <f>INDEX(Define!E:E,MATCH(E158,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6580,10 +6560,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -6593,14 +6573,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E160">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F160" t="str">
         <f>INDEX(Define!E:E,MATCH(E160,Define!D:D))</f>
-        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6621,17 +6601,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E161">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F161" t="str">
         <f>INDEX(Define!E:E,MATCH(E161,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6656,7 +6636,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -6684,7 +6664,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -6705,72 +6685,16 @@
         <v>Tactics開始</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F164" t="str">
         <f>INDEX(Define!E:E,MATCH(E164,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165">
-        <v>112</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="str">
-        <f>INDEX(Define!B:B,MATCH(C165,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="str">
-        <f>INDEX(Define!E:E,MATCH(E165,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G165">
-        <v>4</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166">
-        <v>112</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="str">
-        <f>INDEX(Define!B:B,MATCH(C166,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E166">
-        <v>3</v>
-      </c>
-      <c r="F166" t="str">
-        <f>INDEX(Define!E:E,MATCH(E166,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
         <v>0</v>
       </c>
     </row>
@@ -6785,7 +6709,7 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -6894,7 +6818,7 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -175,6 +175,9 @@
     <t>ルート分岐パラメータ設定</t>
   </si>
   <si>
+    <t>ルート分岐ステージ移動</t>
+  </si>
+  <si>
     <t>ステージ中断</t>
   </si>
   <si>
@@ -204,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,21 +222,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -241,14 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,16 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +334,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -325,7 +350,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -333,32 +358,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -371,7 +374,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,43 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,49 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,25 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,37 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,15 +565,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,21 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +608,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -647,18 +652,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,145 +673,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -891,7 +894,7 @@
       <sheetName val="Define"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Id</v>
@@ -1357,7 +1360,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1624,7 +1627,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1928,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1960,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1990,10 +1993,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6205,11 +6208,11 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E147">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G147">
         <v>5000</v>
@@ -6265,14 +6268,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F149" t="str">
         <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ルート分岐ステージ移動</v>
       </c>
       <c r="G149">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -6349,14 +6352,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E152">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F152" t="str">
         <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -6377,17 +6380,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E153">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F153" t="str">
         <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6395,7 +6398,7 @@
         <v>111</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6405,17 +6408,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E154">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F154" t="str">
         <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6423,7 +6426,7 @@
         <v>111</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -6433,17 +6436,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E155">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F155" t="str">
         <f>INDEX(Define!E:E,MATCH(E155,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6451,7 +6454,7 @@
         <v>111</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6461,17 +6464,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E156">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F156" t="str">
         <f>INDEX(Define!E:E,MATCH(E156,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6479,7 +6482,7 @@
         <v>111</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6489,25 +6492,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E157">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F157" t="str">
         <f>INDEX(Define!E:E,MATCH(E157,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6517,17 +6520,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E158">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F158" t="str">
         <f>INDEX(Define!E:E,MATCH(E158,Define!D:D))</f>
-        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6563,7 +6566,7 @@
         <v>112</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -6573,17 +6576,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F160" t="str">
         <f>INDEX(Define!E:E,MATCH(E160,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6591,7 +6594,7 @@
         <v>112</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -6601,17 +6604,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F161" t="str">
         <f>INDEX(Define!E:E,MATCH(E161,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6619,7 +6622,7 @@
         <v>112</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -6629,45 +6632,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F162" t="str">
         <f>INDEX(Define!E:E,MATCH(E162,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>112</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D163" t="str">
         <f>INDEX(Define!B:B,MATCH(C163,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F163" t="str">
         <f>INDEX(Define!E:E,MATCH(E163,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G163">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I163" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G163,[1]Advs!A:A))</f>
+        <v>Ending</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6675,7 +6682,7 @@
         <v>112</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -6685,16 +6692,44 @@
         <v>Tactics開始</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F164" t="str">
         <f>INDEX(Define!E:E,MATCH(E164,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>112</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="str">
+        <f>INDEX(Define!B:B,MATCH(C165,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E165">
+        <v>62</v>
+      </c>
+      <c r="F165" t="str">
+        <f>INDEX(Define!E:E,MATCH(E165,Define!D:D))</f>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
         <v>0</v>
       </c>
     </row>
@@ -6816,10 +6851,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -6988,7 +7023,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -6996,7 +7031,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -7004,7 +7039,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -7012,7 +7047,7 @@
     </row>
     <row r="19" spans="4:5">
       <c r="D19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -7020,7 +7055,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -7028,7 +7063,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -7036,7 +7071,7 @@
     </row>
     <row r="22" spans="4:5">
       <c r="D22">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>54</v>
@@ -7044,10 +7079,18 @@
     </row>
     <row r="23" spans="4:5">
       <c r="D23">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>NameId</t>
+  </si>
+  <si>
+    <t>AchieveTextId</t>
   </si>
   <si>
     <t>Selectable</t>
@@ -113,6 +116,12 @@
   </si>
   <si>
     <t>テストステージ</t>
+  </si>
+  <si>
+    <t>隷従属度を90以上獲得</t>
+  </si>
+  <si>
+    <t>魂の終焉に回帰する</t>
   </si>
   <si>
     <t>なし</t>
@@ -207,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,6 +227,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,44 +246,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,15 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,8 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,10 +319,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,10 +336,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,6 +348,29 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -374,43 +383,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,67 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +592,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,27 +631,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -652,16 +659,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,145 +682,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,15 +1633,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1654,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1663,8 +1672,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1672,31 +1684,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1706,29 +1721,32 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1736,31 +1754,34 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1768,31 +1789,34 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1800,31 +1824,34 @@
         <v>101</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1832,31 +1859,34 @@
         <v>101</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1864,31 +1894,34 @@
         <v>101</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1896,31 +1929,34 @@
         <v>101</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>11</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>111</v>
       </c>
@@ -1928,31 +1964,34 @@
         <v>101</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>112</v>
       </c>
@@ -1960,27 +1999,30 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>16</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
@@ -1995,7 +2037,7 @@
   <sheetPr/>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+    <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
@@ -2010,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6742,13 +6784,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.3636363636364" customWidth="1"/>
@@ -6759,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6770,10 +6812,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6781,10 +6823,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6792,10 +6834,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6803,10 +6845,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6814,10 +6856,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6825,10 +6867,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6836,10 +6878,32 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6861,10 +6925,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6872,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6886,13 +6950,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6900,13 +6964,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6914,13 +6978,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6928,13 +6992,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6942,13 +7006,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6956,13 +7020,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -6970,7 +7034,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -6978,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -6986,7 +7050,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -6994,7 +7058,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -7002,7 +7066,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -7010,7 +7074,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -7018,7 +7082,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -7026,7 +7090,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -7034,7 +7098,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -7042,7 +7106,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -7050,7 +7114,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -7058,7 +7122,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -7066,7 +7130,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -7074,7 +7138,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -7082,7 +7146,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -7090,7 +7154,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,8 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +252,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -251,9 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,10 +314,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,9 +339,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,62 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -383,13 +383,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +515,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,157 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,69 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,7 +596,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +626,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -682,145 +682,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1635,7 +1635,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2035,10 +2035,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A130" sqref="$A130:$XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4475,65 +4475,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85">
+        <v>101</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>11</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
       </c>
       <c r="D85" t="str">
         <f>INDEX(Define!B:B,MATCH(C85,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E85">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F85" t="str">
         <f>INDEX(Define!E:E,MATCH(E85,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ADV再生</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H85">
         <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G85,[1]Advs!A:A))</f>
+        <v>Opening</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
+        <v>101</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>11</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
       </c>
       <c r="D86" t="str">
         <f>INDEX(Define!B:B,MATCH(C86,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F86" t="str">
         <f>INDEX(Define!E:E,MATCH(E86,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4553,7 +4557,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4561,10 +4565,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4581,7 +4585,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4589,10 +4593,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4609,7 +4613,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4617,10 +4621,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4630,14 +4634,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="str">
         <f>INDEX(Define!E:E,MATCH(E90,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4645,10 +4649,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4658,42 +4662,42 @@
         <v>Tactics開始</v>
       </c>
       <c r="E91">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F91" t="str">
         <f>INDEX(Define!E:E,MATCH(E91,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX(Define!B:B,MATCH(C92,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E92">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F92" t="str">
         <f>INDEX(Define!E:E,MATCH(E92,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -4701,10 +4705,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4714,25 +4718,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E93">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
         <f>INDEX(Define!E:E,MATCH(E93,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4742,25 +4746,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E94">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F94" t="str">
         <f>INDEX(Define!E:E,MATCH(E94,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4770,22 +4774,22 @@
         <v>Tactics開始</v>
       </c>
       <c r="E95">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F95" t="str">
         <f>INDEX(Define!E:E,MATCH(E95,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4798,25 +4802,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E96">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F96" t="str">
         <f>INDEX(Define!E:E,MATCH(E96,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4826,53 +4830,57 @@
         <v>Tactics開始</v>
       </c>
       <c r="E97">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F97" t="str">
         <f>INDEX(Define!E:E,MATCH(E97,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX(Define!B:B,MATCH(C98,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E98">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F98" t="str">
         <f>INDEX(Define!E:E,MATCH(E98,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ADV再生</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H98">
         <v>1</v>
+      </c>
+      <c r="I98" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G98,[1]Advs!A:A))</f>
+        <v>Event2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4882,14 +4890,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E99">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F99" t="str">
         <f>INDEX(Define!E:E,MATCH(E99,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4897,10 +4905,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4910,25 +4918,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E100">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F100" t="str">
         <f>INDEX(Define!E:E,MATCH(E100,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4938,14 +4946,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E101">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F101" t="str">
         <f>INDEX(Define!E:E,MATCH(E101,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -4953,10 +4961,10 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4966,14 +4974,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E102">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F102" t="str">
         <f>INDEX(Define!E:E,MATCH(E102,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -4981,10 +4989,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4994,25 +5002,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E103">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F103" t="str">
         <f>INDEX(Define!E:E,MATCH(E103,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5022,25 +5030,29 @@
         <v>Tactics開始</v>
       </c>
       <c r="E104">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F104" t="str">
         <f>INDEX(Define!E:E,MATCH(E104,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ADV再生</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H104">
         <v>1</v>
+      </c>
+      <c r="I104" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G104,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5050,14 +5062,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F105" t="str">
         <f>INDEX(Define!E:E,MATCH(E105,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5065,10 +5077,10 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>11</v>
@@ -5085,22 +5097,22 @@
         <v>ADV再生</v>
       </c>
       <c r="G106">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G106,[1]Advs!A:A))</f>
-        <v>Opening</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>Event3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -5117,18 +5129,22 @@
         <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G107">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G107,[1]Advs!A:A))</f>
+        <v>Actor0007_2</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
       <c r="A108">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5138,25 +5154,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F108" t="str">
         <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5166,14 +5182,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F109" t="str">
         <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5181,10 +5197,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5194,25 +5210,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F110" t="str">
         <f>INDEX(Define!E:E,MATCH(E110,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5222,22 +5238,22 @@
         <v>Tactics開始</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F111" t="str">
         <f>INDEX(Define!E:E,MATCH(E111,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5250,53 +5266,57 @@
         <v>Tactics開始</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F112" t="str">
         <f>INDEX(Define!E:E,MATCH(E112,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX(Define!B:B,MATCH(C113,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F113" t="str">
         <f>INDEX(Define!E:E,MATCH(E113,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I113" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G113,[1]Advs!A:A))</f>
+        <v>Actor0007_3</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
       <c r="A114">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5306,25 +5326,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F114" t="str">
         <f>INDEX(Define!E:E,MATCH(E114,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5334,14 +5354,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F115" t="str">
         <f>INDEX(Define!E:E,MATCH(E115,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5349,10 +5369,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5362,82 +5382,78 @@
         <v>Tactics開始</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F116" t="str">
         <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D117" t="str">
         <f>INDEX(Define!B:B,MATCH(C117,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F117" t="str">
         <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G117">
-        <v>2000</v>
+        <v>104</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:8">
       <c r="A118">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D118" t="str">
         <f>INDEX(Define!B:B,MATCH(C118,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F118" t="str">
         <f>INDEX(Define!E:E,MATCH(E118,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G118">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G118,[1]Advs!A:A))</f>
-        <v>Event2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
       <c r="A119">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -5465,7 +5481,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -5485,7 +5501,7 @@
         <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5493,7 +5509,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -5521,7 +5537,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -5541,7 +5557,7 @@
         <v>ステージ移動</v>
       </c>
       <c r="G122">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -5549,10 +5565,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5562,25 +5578,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F123" t="str">
         <f>INDEX(Define!E:E,MATCH(E123,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:8">
       <c r="A124">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5590,29 +5606,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E124">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F124" t="str">
         <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G124">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G124,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5622,25 +5634,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -5650,61 +5662,57 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E126">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F126" t="str">
         <f>INDEX(Define!E:E,MATCH(E126,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G126">
-        <v>103</v>
+        <v>5000</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G126,[1]Advs!A:A))</f>
-        <v>Event3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>Actor0007_4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127" t="str">
         <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F127" t="str">
         <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G127">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
-        <v>Actor0007_2</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5714,14 +5722,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E128">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F128" t="str">
         <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -5729,35 +5737,35 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B129">
         <v>7</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D129" t="str">
         <f>INDEX(Define!B:B,MATCH(C129,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F129" t="str">
         <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ルート分岐ステージ移動</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -5770,14 +5778,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E130">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F130" t="str">
         <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5785,7 +5793,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -5798,14 +5806,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E131">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G131">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5813,10 +5821,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5826,57 +5834,53 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D133" t="str">
         <f>INDEX(Define!B:B,MATCH(C133,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G133">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G133,[1]Advs!A:A))</f>
-        <v>Actor0007_3</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -5886,25 +5890,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F134" t="str">
         <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5914,14 +5918,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F135" t="str">
         <f>INDEX(Define!E:E,MATCH(E135,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -5929,10 +5933,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -5942,25 +5946,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F136" t="str">
         <f>INDEX(Define!E:E,MATCH(E136,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5970,25 +5974,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E137">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F137" t="str">
         <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G137">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5998,25 +6002,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6026,14 +6030,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -6041,10 +6045,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6054,25 +6058,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F140" t="str">
         <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -6082,14 +6086,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E141">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F141" t="str">
         <f>INDEX(Define!E:E,MATCH(E141,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -6097,10 +6101,10 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6110,53 +6114,57 @@
         <v>Tactics開始</v>
       </c>
       <c r="E142">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F142" t="str">
         <f>INDEX(Define!E:E,MATCH(E142,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G142">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:9">
       <c r="A143">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D143" t="str">
         <f>INDEX(Define!B:B,MATCH(C143,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E143">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F143" t="str">
         <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ADV再生</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I143" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G143,[1]Advs!A:A))</f>
+        <v>Ending</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6166,25 +6174,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6194,584 +6202,16 @@
         <v>Tactics開始</v>
       </c>
       <c r="E145">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G145">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>106</v>
-      </c>
-      <c r="B146">
-        <v>6</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="str">
-        <f>INDEX(Define!B:B,MATCH(C146,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E146">
-        <v>61</v>
-      </c>
-      <c r="F146" t="str">
-        <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
-      </c>
-      <c r="G146">
-        <v>5</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147">
-        <v>106</v>
-      </c>
-      <c r="B147">
-        <v>6</v>
-      </c>
-      <c r="C147">
-        <v>11</v>
-      </c>
-      <c r="D147" t="str">
-        <f>INDEX(Define!B:B,MATCH(C147,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E147">
-        <v>13</v>
-      </c>
-      <c r="F147" t="str">
-        <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
-      </c>
-      <c r="G147">
-        <v>5000</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-      <c r="I147" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G147,[1]Advs!A:A))</f>
-        <v>Actor0007_4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
-        <v>106</v>
-      </c>
-      <c r="B148">
-        <v>6</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="str">
-        <f>INDEX(Define!B:B,MATCH(C148,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E148">
-        <v>14</v>
-      </c>
-      <c r="F148" t="str">
-        <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149">
-        <v>106</v>
-      </c>
-      <c r="B149">
-        <v>7</v>
-      </c>
-      <c r="C149">
-        <v>11</v>
-      </c>
-      <c r="D149" t="str">
-        <f>INDEX(Define!B:B,MATCH(C149,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E149">
-        <v>15</v>
-      </c>
-      <c r="F149" t="str">
-        <f>INDEX(Define!E:E,MATCH(E149,Define!D:D))</f>
-        <v>ルート分岐ステージ移動</v>
-      </c>
-      <c r="G149">
-        <v>201</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150">
-        <v>106</v>
-      </c>
-      <c r="B150">
-        <v>7</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="str">
-        <f>INDEX(Define!B:B,MATCH(C150,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E150">
-        <v>7</v>
-      </c>
-      <c r="F150" t="str">
-        <f>INDEX(Define!E:E,MATCH(E150,Define!D:D))</f>
-        <v>セーブを行う</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
-        <v>106</v>
-      </c>
-      <c r="B151">
-        <v>7</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="str">
-        <f>INDEX(Define!B:B,MATCH(C151,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E151">
-        <v>31</v>
-      </c>
-      <c r="F151" t="str">
-        <f>INDEX(Define!E:E,MATCH(E151,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
-      </c>
-      <c r="G151">
-        <v>111</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152">
-        <v>111</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="str">
-        <f>INDEX(Define!B:B,MATCH(C152,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E152">
-        <v>32</v>
-      </c>
-      <c r="F152" t="str">
-        <f>INDEX(Define!E:E,MATCH(E152,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153">
-        <v>111</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="str">
-        <f>INDEX(Define!B:B,MATCH(C153,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" t="str">
-        <f>INDEX(Define!E:E,MATCH(E153,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154">
-        <v>111</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" t="str">
-        <f>INDEX(Define!B:B,MATCH(C154,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" t="str">
-        <f>INDEX(Define!E:E,MATCH(E154,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155">
-        <v>111</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="str">
-        <f>INDEX(Define!B:B,MATCH(C155,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" t="str">
-        <f>INDEX(Define!E:E,MATCH(E155,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156">
-        <v>111</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="str">
-        <f>INDEX(Define!B:B,MATCH(C156,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" t="str">
-        <f>INDEX(Define!E:E,MATCH(E156,Define!D:D))</f>
-        <v>コマンドを制限する</v>
-      </c>
-      <c r="G156">
-        <v>4</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157">
-        <v>111</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="str">
-        <f>INDEX(Define!B:B,MATCH(C157,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E157">
-        <v>3</v>
-      </c>
-      <c r="F157" t="str">
-        <f>INDEX(Define!E:E,MATCH(E157,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158">
-        <v>112</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="str">
-        <f>INDEX(Define!B:B,MATCH(C158,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E158">
-        <v>33</v>
-      </c>
-      <c r="F158" t="str">
-        <f>INDEX(Define!E:E,MATCH(E158,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
-      </c>
-      <c r="G158">
-        <v>6</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159">
-        <v>112</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="str">
-        <f>INDEX(Define!B:B,MATCH(C159,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E159">
-        <v>32</v>
-      </c>
-      <c r="F159" t="str">
-        <f>INDEX(Define!E:E,MATCH(E159,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160">
-        <v>112</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="str">
-        <f>INDEX(Define!B:B,MATCH(C160,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E160">
-        <v>32</v>
-      </c>
-      <c r="F160" t="str">
-        <f>INDEX(Define!E:E,MATCH(E160,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161">
-        <v>112</v>
-      </c>
-      <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="str">
-        <f>INDEX(Define!B:B,MATCH(C161,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E161">
-        <v>32</v>
-      </c>
-      <c r="F161" t="str">
-        <f>INDEX(Define!E:E,MATCH(E161,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162">
-        <v>112</v>
-      </c>
-      <c r="B162">
-        <v>4</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="str">
-        <f>INDEX(Define!B:B,MATCH(C162,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E162">
-        <v>32</v>
-      </c>
-      <c r="F162" t="str">
-        <f>INDEX(Define!E:E,MATCH(E162,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163">
-        <v>112</v>
-      </c>
-      <c r="B163">
-        <v>5</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
-      </c>
-      <c r="D163" t="str">
-        <f>INDEX(Define!B:B,MATCH(C163,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E163">
-        <v>11</v>
-      </c>
-      <c r="F163" t="str">
-        <f>INDEX(Define!E:E,MATCH(E163,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G163">
-        <v>211</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G163,[1]Advs!A:A))</f>
-        <v>Ending</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164">
-        <v>112</v>
-      </c>
-      <c r="B164">
-        <v>5</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" t="str">
-        <f>INDEX(Define!B:B,MATCH(C164,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E164">
-        <v>32</v>
-      </c>
-      <c r="F164" t="str">
-        <f>INDEX(Define!E:E,MATCH(E164,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165">
-        <v>112</v>
-      </c>
-      <c r="B165">
-        <v>6</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="str">
-        <f>INDEX(Define!B:B,MATCH(C165,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E165">
-        <v>62</v>
-      </c>
-      <c r="F165" t="str">
-        <f>INDEX(Define!E:E,MATCH(E165,Define!D:D))</f>
-        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,62 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,9 +252,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +321,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -330,8 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,24 +361,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,19 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +413,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,19 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,49 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,31 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +574,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,76 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,19 +682,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,124 +703,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2037,8 +2037,8 @@
   <sheetPr/>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A130" sqref="$A130:$XFD130"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4890,14 +4890,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F99" t="str">
         <f>INDEX(Define!E:E,MATCH(E99,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4918,25 +4918,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F100" t="str">
         <f>INDEX(Define!E:E,MATCH(E100,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4946,25 +4946,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F101" t="str">
         <f>INDEX(Define!E:E,MATCH(E101,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4974,17 +4974,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E102">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F102" t="str">
         <f>INDEX(Define!E:E,MATCH(E102,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G102">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5002,17 +5002,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F103" t="str">
         <f>INDEX(Define!E:E,MATCH(E103,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5139,7 +5139,7 @@
         <v>Actor0007_2</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>102</v>
       </c>
@@ -5154,25 +5154,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F108" t="str">
         <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" customHeight="1" spans="1:8">
       <c r="A109">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B109">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5182,25 +5182,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F109" t="str">
         <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5210,25 +5210,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F110" t="str">
         <f>INDEX(Define!E:E,MATCH(E110,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5238,14 +5238,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E111">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F111" t="str">
         <f>INDEX(Define!E:E,MATCH(E111,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G111">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5311,7 +5311,7 @@
         <v>Actor0007_3</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>103</v>
       </c>
@@ -5326,25 +5326,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F114" t="str">
         <f>INDEX(Define!E:E,MATCH(E114,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" customHeight="1" spans="1:8">
       <c r="A115">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5354,25 +5354,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F115" t="str">
         <f>INDEX(Define!E:E,MATCH(E115,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5382,25 +5382,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F116" t="str">
         <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5410,14 +5410,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E117">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F117" t="str">
         <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G117">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>104</v>
       </c>
@@ -5466,25 +5466,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F119" t="str">
         <f>INDEX(Define!E:E,MATCH(E119,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" customHeight="1" spans="1:8">
       <c r="A120">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5494,25 +5494,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F120" t="str">
         <f>INDEX(Define!E:E,MATCH(E120,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5522,25 +5522,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F121" t="str">
         <f>INDEX(Define!E:E,MATCH(E121,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5550,14 +5550,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E122">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F122" t="str">
         <f>INDEX(Define!E:E,MATCH(E122,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G122">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -5606,25 +5606,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F124" t="str">
         <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5634,17 +5634,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G125">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -43,10 +43,13 @@
     <t>RandomTroopCount</t>
   </si>
   <si>
+    <t>BossBGMId</t>
+  </si>
+  <si>
     <t>BGMId</t>
   </si>
   <si>
-    <t>BossBGMId</t>
+    <t>BossId</t>
   </si>
   <si>
     <t>Reborn</t>
@@ -230,15 +233,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +272,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,16 +280,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,6 +310,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,25 +348,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,22 +364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +386,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,13 +470,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,127 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +577,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,23 +633,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,20 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,7 +685,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,7 +694,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,10 +703,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,115 +715,115 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,15 +1636,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,8 +1678,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1699,19 +1705,22 @@
         <v>15</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1728,25 +1737,28 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>11</v>
       </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1763,25 +1775,28 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1804,19 +1819,22 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1839,19 +1857,22 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1874,19 +1895,22 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1909,19 +1933,22 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1944,19 +1971,22 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>11</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>111</v>
       </c>
@@ -1979,19 +2009,22 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
       <c r="J10">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>112</v>
       </c>
@@ -2014,15 +2047,18 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
       <c r="J11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0</v>
       </c>
     </row>
@@ -2037,7 +2073,7 @@
   <sheetPr/>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
@@ -2055,16 +2091,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6241,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6252,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6263,10 +6299,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6274,10 +6310,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6285,10 +6321,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6296,10 +6332,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6307,10 +6343,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6318,10 +6354,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6329,10 +6365,10 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6340,10 +6376,10 @@
         <v>10002</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6365,10 +6401,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6376,13 +6412,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6390,13 +6426,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6404,13 +6440,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6418,13 +6454,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6432,13 +6468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6446,13 +6482,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6460,13 +6496,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -6474,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -6482,7 +6518,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -6490,7 +6526,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -6498,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -6506,7 +6542,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -6514,7 +6550,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -6522,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -6530,7 +6566,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -6538,7 +6574,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -6546,7 +6582,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -6554,7 +6590,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -6562,7 +6598,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -6570,7 +6606,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -6578,7 +6614,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -6586,7 +6622,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -6594,7 +6630,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
     <sheet name="StageEvents" sheetId="2" r:id="rId2"/>
-    <sheet name="TextData" sheetId="3" r:id="rId3"/>
-    <sheet name="Define" sheetId="4" r:id="rId4"/>
+    <sheet name="Tutorials" sheetId="5" r:id="rId3"/>
+    <sheet name="TextData" sheetId="3" r:id="rId4"/>
+    <sheet name="Define" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -79,6 +80,24 @@
     <t>ReadFlag</t>
   </si>
   <si>
+    <t>StageId</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -125,6 +144,9 @@
   </si>
   <si>
     <t>魂の終焉に回帰する</t>
+  </si>
+  <si>
+    <t>チュートリアルを履修する</t>
   </si>
   <si>
     <t>なし</t>
@@ -220,9 +242,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,21 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,9 +265,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,9 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +294,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +313,22 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,26 +346,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,7 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +379,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,13 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,31 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +528,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,15 +599,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,6 +628,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,24 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +667,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -677,6 +690,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,145 +707,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1690,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2073,8 +2095,8 @@
   <sheetPr/>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6260,10 +6282,495 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-384</v>
+      </c>
+      <c r="F2">
+        <v>-204</v>
+      </c>
+      <c r="G2">
+        <v>164</v>
+      </c>
+      <c r="H2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>-216</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>496</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>-140</v>
+      </c>
+      <c r="F4">
+        <v>-188</v>
+      </c>
+      <c r="G4">
+        <v>184</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>-204</v>
+      </c>
+      <c r="G5">
+        <v>164</v>
+      </c>
+      <c r="H5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>-216</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>496</v>
+      </c>
+      <c r="H6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>-140</v>
+      </c>
+      <c r="F7">
+        <v>-188</v>
+      </c>
+      <c r="G7">
+        <v>184</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-204</v>
+      </c>
+      <c r="G8">
+        <v>164</v>
+      </c>
+      <c r="H8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>-264</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>216</v>
+      </c>
+      <c r="H9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>-216</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>496</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>-140</v>
+      </c>
+      <c r="F11">
+        <v>-188</v>
+      </c>
+      <c r="G11">
+        <v>184</v>
+      </c>
+      <c r="H11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-128</v>
+      </c>
+      <c r="F12">
+        <v>-204</v>
+      </c>
+      <c r="G12">
+        <v>164</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>-216</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>496</v>
+      </c>
+      <c r="H13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>-140</v>
+      </c>
+      <c r="F14">
+        <v>-188</v>
+      </c>
+      <c r="G14">
+        <v>184</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>-128</v>
+      </c>
+      <c r="F15">
+        <v>-204</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>-216</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>496</v>
+      </c>
+      <c r="H16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>-84</v>
+      </c>
+      <c r="F17">
+        <v>-160</v>
+      </c>
+      <c r="G17">
+        <v>104</v>
+      </c>
+      <c r="H17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>-140</v>
+      </c>
+      <c r="F18">
+        <v>-188</v>
+      </c>
+      <c r="G18">
+        <v>184</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6277,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6288,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6299,10 +6806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6310,10 +6817,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6321,10 +6828,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6332,10 +6839,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6343,10 +6850,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6354,10 +6861,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6365,10 +6872,10 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6376,10 +6883,21 @@
         <v>10002</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E24"/>
@@ -6412,13 +6930,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6426,13 +6944,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6440,13 +6958,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6454,13 +6972,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6468,13 +6986,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6482,13 +7000,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6496,13 +7014,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -6510,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -6518,7 +7036,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -6526,7 +7044,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -6534,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -6542,7 +7060,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -6550,7 +7068,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -6558,7 +7076,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -6566,7 +7084,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -6574,7 +7092,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -6582,7 +7100,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -6590,7 +7108,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -6598,7 +7116,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -6606,7 +7124,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -6614,7 +7132,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -6622,7 +7140,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -6630,7 +7148,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -241,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,17 +257,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,21 +280,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,17 +301,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,17 +344,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +376,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -392,8 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,55 +474,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,31 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,55 +558,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +628,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,21 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,9 +691,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,145 +707,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6285,7 +6285,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -6668,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>-128</v>
+        <v>-256</v>
       </c>
       <c r="F15">
         <v>-204</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Reborn</t>
+  </si>
+  <si>
+    <t>Alcana</t>
   </si>
   <si>
     <t>SubordinateValue</t>
@@ -243,8 +246,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,6 +255,44 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,14 +313,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +345,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,35 +381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -339,53 +389,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +411,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,7 +429,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,19 +513,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,43 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,85 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,16 +624,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,23 +677,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,7 +710,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,7 +719,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,127 +728,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,15 +1661,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,8 +1706,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1741,8 +1747,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -1768,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1779,8 +1788,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1815,10 +1827,13 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1853,10 +1868,13 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1891,10 +1909,13 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1929,10 +1950,13 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1967,10 +1991,13 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>106</v>
       </c>
@@ -2005,10 +2032,13 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>111</v>
       </c>
@@ -2045,8 +2075,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>112</v>
       </c>
@@ -2081,6 +2114,9 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -2093,10 +2129,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2113,16 +2149,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4608,14 +4644,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87" t="str">
         <f>INDEX(Define!E:E,MATCH(E87,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4626,7 +4662,7 @@
         <v>101</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4654,7 +4690,7 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4682,7 +4718,7 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4710,7 +4746,7 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4738,27 +4774,27 @@
         <v>101</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX(Define!B:B,MATCH(C92,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F92" t="str">
         <f>INDEX(Define!E:E,MATCH(E92,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G92">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4769,24 +4805,24 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX(Define!B:B,MATCH(C93,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F93" t="str">
         <f>INDEX(Define!E:E,MATCH(E93,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4811,7 +4847,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4839,7 +4875,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4867,7 +4903,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4888,52 +4924,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="str">
         <f>INDEX(Define!E:E,MATCH(E97,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>101</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX(Define!B:B,MATCH(C98,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F98" t="str">
         <f>INDEX(Define!E:E,MATCH(E98,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G98">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G98,[1]Advs!A:A))</f>
-        <v>Event2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>101</v>
       </c>
@@ -4941,18 +4973,18 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX(Define!B:B,MATCH(C99,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E99">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F99" t="str">
         <f>INDEX(Define!E:E,MATCH(E99,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ADV再生</v>
       </c>
       <c r="G99">
         <v>102</v>
@@ -4960,13 +4992,17 @@
       <c r="H99">
         <v>1</v>
       </c>
+      <c r="I99" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G99,[1]Advs!A:A))</f>
+        <v>Event2</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4976,14 +5012,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F100" t="str">
         <f>INDEX(Define!E:E,MATCH(E100,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5004,17 +5040,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F101" t="str">
         <f>INDEX(Define!E:E,MATCH(E101,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5032,11 +5068,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F102" t="str">
         <f>INDEX(Define!E:E,MATCH(E102,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -5060,20 +5096,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F103" t="str">
         <f>INDEX(Define!E:E,MATCH(E103,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5088,29 +5124,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E104">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F104" t="str">
         <f>INDEX(Define!E:E,MATCH(E104,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G104,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>102</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5120,49 +5152,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E105">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F105" t="str">
         <f>INDEX(Define!E:E,MATCH(E105,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ADV再生</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I105" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G105,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>102</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D106" t="str">
         <f>INDEX(Define!B:B,MATCH(C106,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F106" t="str">
         <f>INDEX(Define!E:E,MATCH(E106,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G106">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G106,[1]Advs!A:A))</f>
-        <v>Event3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5180,24 +5212,24 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" t="str">
         <f>INDEX(Define!E:E,MATCH(E107,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ADV再生</v>
       </c>
       <c r="G107">
-        <v>3000</v>
+        <v>103</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G107,[1]Advs!A:A))</f>
-        <v>Actor0007_2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>Event3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>102</v>
       </c>
@@ -5205,32 +5237,36 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX(Define!B:B,MATCH(C108,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F108" t="str">
         <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G108">
-        <v>103</v>
+        <v>3000</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
+      <c r="I108" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G108,[1]Advs!A:A))</f>
+        <v>Actor0007_2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5240,20 +5276,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F109" t="str">
         <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" customHeight="1" spans="1:8">
       <c r="A110">
         <v>103</v>
       </c>
@@ -5268,17 +5304,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F110" t="str">
         <f>INDEX(Define!E:E,MATCH(E110,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5296,17 +5332,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F111" t="str">
         <f>INDEX(Define!E:E,MATCH(E111,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5314,7 +5350,7 @@
         <v>103</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5324,52 +5360,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E112">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F112" t="str">
         <f>INDEX(Define!E:E,MATCH(E112,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>103</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX(Define!B:B,MATCH(C113,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F113" t="str">
         <f>INDEX(Define!E:E,MATCH(E113,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G113">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G113,[1]Advs!A:A))</f>
-        <v>Actor0007_3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>103</v>
       </c>
@@ -5377,32 +5409,36 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX(Define!B:B,MATCH(C114,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E114">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F114" t="str">
         <f>INDEX(Define!E:E,MATCH(E114,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G114">
-        <v>104</v>
+        <v>4000</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
+      <c r="I114" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G114,[1]Advs!A:A))</f>
+        <v>Actor0007_3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5412,20 +5448,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F115" t="str">
         <f>INDEX(Define!E:E,MATCH(E115,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" customHeight="1" spans="1:8">
       <c r="A116">
         <v>104</v>
       </c>
@@ -5440,17 +5476,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F116" t="str">
         <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5468,17 +5504,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F117" t="str">
         <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5486,7 +5522,7 @@
         <v>104</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5496,17 +5532,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E118">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F118" t="str">
         <f>INDEX(Define!E:E,MATCH(E118,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5514,7 +5550,7 @@
         <v>104</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5524,25 +5560,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E119">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F119" t="str">
         <f>INDEX(Define!E:E,MATCH(E119,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G119">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5552,20 +5588,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F120" t="str">
         <f>INDEX(Define!E:E,MATCH(E120,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" customHeight="1" spans="1:8">
       <c r="A121">
         <v>105</v>
       </c>
@@ -5580,17 +5616,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F121" t="str">
         <f>INDEX(Define!E:E,MATCH(E121,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5608,17 +5644,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F122" t="str">
         <f>INDEX(Define!E:E,MATCH(E122,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5626,7 +5662,7 @@
         <v>105</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5636,17 +5672,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E123">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F123" t="str">
         <f>INDEX(Define!E:E,MATCH(E123,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5654,7 +5690,7 @@
         <v>105</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5664,25 +5700,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E124">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F124" t="str">
         <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G124">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5692,52 +5728,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>106</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D126" t="str">
         <f>INDEX(Define!B:B,MATCH(C126,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E126">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F126" t="str">
         <f>INDEX(Define!E:E,MATCH(E126,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G126">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G126,[1]Advs!A:A))</f>
-        <v>Actor0007_4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>106</v>
       </c>
@@ -5745,24 +5777,28 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D127" t="str">
         <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E127">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F127" t="str">
         <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I127" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
+        <v>Actor0007_4</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5780,17 +5816,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E128">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F128" t="str">
         <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5798,24 +5834,24 @@
         <v>106</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D129" t="str">
         <f>INDEX(Define!B:B,MATCH(C129,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E129">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F129" t="str">
         <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
-        <v>ルート分岐ステージ移動</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G129">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5829,21 +5865,21 @@
         <v>7</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D130" t="str">
         <f>INDEX(Define!B:B,MATCH(C130,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E130">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F130" t="str">
         <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>ルート分岐ステージ移動</v>
       </c>
       <c r="G130">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5864,14 +5900,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5879,10 +5915,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5892,14 +5928,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -5920,17 +5956,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5955,7 +5991,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -5983,7 +6019,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6011,7 +6047,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6032,14 +6068,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F137" t="str">
         <f>INDEX(Define!E:E,MATCH(E137,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6047,7 +6083,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6060,17 +6096,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6088,14 +6124,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -6106,7 +6142,7 @@
         <v>112</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6134,7 +6170,7 @@
         <v>112</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -6162,7 +6198,7 @@
         <v>112</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6185,39 +6221,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>112</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D143" t="str">
         <f>INDEX(Define!B:B,MATCH(C143,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E143">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F143" t="str">
         <f>INDEX(Define!E:E,MATCH(E143,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G143">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
-      <c r="I143" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G143,[1]Advs!A:A))</f>
-        <v>Ending</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>112</v>
       </c>
@@ -6225,24 +6257,28 @@
         <v>5</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D144" t="str">
         <f>INDEX(Define!B:B,MATCH(C144,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E144">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ADV再生</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H144">
         <v>1</v>
+      </c>
+      <c r="I144" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G144,[1]Advs!A:A))</f>
+        <v>Ending</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6250,7 +6286,7 @@
         <v>112</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6260,16 +6296,44 @@
         <v>Tactics開始</v>
       </c>
       <c r="E145">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>112</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="str">
+        <f>INDEX(Define!B:B,MATCH(C146,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E146">
+        <v>62</v>
+      </c>
+      <c r="F146" t="str">
+        <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
         <v>上位者ボスを設置する(コマンド制限判定あり)</v>
       </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6348,7 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6292,28 +6356,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6784,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6795,10 +6859,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6806,10 +6870,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6817,10 +6881,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6828,10 +6892,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6839,10 +6903,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6850,10 +6914,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6861,10 +6925,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6872,10 +6936,10 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6883,10 +6947,10 @@
         <v>10002</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6894,10 +6958,10 @@
         <v>10003</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6919,10 +6983,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6930,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6944,13 +7008,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6958,13 +7022,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6972,13 +7036,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6986,13 +7050,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7000,13 +7064,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7014,13 +7078,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -7028,7 +7092,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -7036,7 +7100,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -7044,7 +7108,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -7052,7 +7116,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -7060,7 +7124,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -7068,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -7076,7 +7140,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -7084,7 +7148,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -7092,7 +7156,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -7100,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -7108,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -7116,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -7124,7 +7188,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -7132,7 +7196,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -7140,7 +7204,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -7148,7 +7212,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>RandomTroopCount</t>
   </si>
   <si>
-    <t>BossBGMId</t>
+    <t>BGMId</t>
   </si>
   <si>
-    <t>BGMId</t>
+    <t>BossBGMId</t>
   </si>
   <si>
     <t>BossId</t>
@@ -244,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -255,13 +255,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,63 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,32 +304,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,8 +325,78 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,12 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,6 +418,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,31 +561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,109 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,26 +620,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,11 +677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,145 +710,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,8 +1663,8 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1733,10 +1733,10 @@
         <v>15</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1773,11 +1773,11 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>15</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>11</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>11</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>11</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>11</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>11</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>11</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>16</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
       </c>
       <c r="J10">
         <v>3000</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>16</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
       </c>
       <c r="J11">
         <v>3000</v>
@@ -2131,7 +2131,7 @@
   <sheetPr/>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>ルート分岐ステージ移動</t>
   </si>
   <si>
-    <t>ステージ中断</t>
+    <t>ステージクリア</t>
   </si>
   <si>
     <t>ルート分岐でステージに移動</t>
@@ -244,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -260,7 +260,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,17 +302,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +330,22 @@
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,30 +388,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -380,23 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +423,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,37 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,43 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +602,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,6 +629,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,6 +649,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,24 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,17 +702,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,145 +710,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,11 +1663,14 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -2131,7 +2134,7 @@
   <sheetPr/>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -3400,7 +3403,7 @@
       </c>
       <c r="F44" t="str">
         <f>INDEX(Define!E:E,MATCH(E44,Define!D:D))</f>
-        <v>ステージ中断</v>
+        <v>ステージクリア</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -6348,8 +6351,8 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -6420,16 +6423,16 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>-216</v>
+        <v>-434</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6498,16 +6501,16 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>-216</v>
+        <v>-434</v>
       </c>
       <c r="F6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6602,16 +6605,16 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>-216</v>
+        <v>-434</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6680,16 +6683,16 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>-216</v>
+        <v>-434</v>
       </c>
       <c r="F13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6758,16 +6761,16 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>-216</v>
+        <v>-434</v>
       </c>
       <c r="F16">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6833,8 +6836,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6975,8 +6978,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Alcana</t>
+  </si>
+  <si>
+    <t>SaveLimit</t>
+  </si>
+  <si>
+    <t>ContinueLimit</t>
+  </si>
+  <si>
+    <t>RankingStage</t>
   </si>
   <si>
     <t>SubordinateValue</t>
@@ -244,9 +253,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -258,31 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,8 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +298,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -326,8 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,11 +328,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,6 +342,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -363,11 +350,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +374,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -397,6 +399,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,7 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,19 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,49 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,13 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,15 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,15 +625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +679,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,145 +719,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,10 +1670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1672,7 +1681,7 @@
     <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1721,17 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1751,10 +1769,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1771,13 +1798,13 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -1792,10 +1819,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1812,7 +1848,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1833,10 +1869,19 @@
         <v>1</v>
       </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1874,10 +1919,19 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1915,10 +1969,19 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1956,10 +2019,19 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1997,10 +2069,19 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>106</v>
       </c>
@@ -2038,10 +2119,19 @@
         <v>0</v>
       </c>
       <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>111</v>
       </c>
@@ -2076,13 +2166,22 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>112</v>
       </c>
@@ -2117,9 +2216,18 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2134,8 +2242,8 @@
   <sheetPr/>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A131" sqref="$A131:$XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2152,16 +2260,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5903,14 +6011,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E131">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G131">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5931,14 +6039,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -6351,7 +6459,7 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:H16"/>
     </sheetView>
   </sheetViews>
@@ -6359,28 +6467,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6836,8 +6944,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6851,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6862,10 +6970,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6873,10 +6981,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6884,10 +6992,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6895,10 +7003,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6906,10 +7014,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6917,10 +7025,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -6928,10 +7036,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6939,10 +7047,10 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6950,10 +7058,10 @@
         <v>10002</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6961,10 +7069,10 @@
         <v>10003</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6986,10 +7094,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6997,13 +7105,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7011,13 +7119,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7025,13 +7133,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7039,13 +7147,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7053,13 +7161,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7067,13 +7175,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7081,13 +7189,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -7095,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -7103,7 +7211,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -7111,7 +7219,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -7119,7 +7227,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -7127,7 +7235,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -7135,7 +7243,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -7143,7 +7251,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -7151,7 +7259,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -7159,7 +7267,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -7167,7 +7275,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -7175,7 +7283,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -7183,7 +7291,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -7191,7 +7299,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -7199,7 +7307,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -7207,7 +7315,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -7215,7 +7323,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -68,7 +68,13 @@
     <t>RankingStage</t>
   </si>
   <si>
+    <t>SlotSave</t>
+  </si>
+  <si>
     <t>SubordinateValue</t>
+  </si>
+  <si>
+    <t>UseSlot</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,11,13,14</t>
@@ -152,6 +158,17 @@
     <t>テストステージ</t>
   </si>
   <si>
+    <t>&lt;中難度&gt;サバイバル</t>
+  </si>
+  <si>
+    <t>クリアデータのアクターを使って
+中難度のステージに挑めます。
+特殊ルール：
+救済執行成功時にHPとMP全回復
+※救済執行に失敗するとゲームオーバー
+※クリアデータは終了時には保存できません。</t>
+  </si>
+  <si>
     <t>隷従属度を90以上獲得</t>
   </si>
   <si>
@@ -159,6 +176,9 @@
   </si>
   <si>
     <t>チュートリアルを履修する</t>
+  </si>
+  <si>
+    <t>救済執行に成功しつづける</t>
   </si>
   <si>
     <t>なし</t>
@@ -253,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -267,8 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,26 +309,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,9 +342,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -350,16 +369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,15 +416,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,66 +524,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,13 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,37 +566,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +631,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,6 +660,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,17 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,19 +739,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,124 +760,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1670,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1681,7 +1701,7 @@
     <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,8 +1750,14 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1780,8 +1806,14 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1798,13 +1830,13 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -1830,8 +1862,14 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1848,7 +1886,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1878,10 +1916,16 @@
         <v>1</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1925,13 +1969,19 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1975,13 +2025,19 @@
         <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>104</v>
       </c>
@@ -2025,13 +2081,19 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>105</v>
       </c>
@@ -2075,13 +2137,19 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>106</v>
       </c>
@@ -2125,13 +2193,19 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>111</v>
       </c>
@@ -2178,10 +2252,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>112</v>
       </c>
@@ -2225,10 +2305,72 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>201</v>
+      </c>
+      <c r="C12">
+        <v>10004</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2260,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6467,28 +6609,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6942,10 +7084,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6959,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -6970,10 +7112,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -6981,10 +7123,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6992,10 +7134,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7003,10 +7145,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7014,10 +7156,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7025,10 +7167,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="143" spans="1:3">
@@ -7036,43 +7178,65 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>10001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="104" spans="1:3">
+      <c r="A9" s="1">
+        <v>201</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
+        <v>10002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>10003</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7094,10 +7258,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7105,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7119,13 +7283,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7133,13 +7297,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7147,13 +7311,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7161,13 +7325,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7175,13 +7339,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7189,13 +7353,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -7203,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -7211,7 +7375,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -7219,7 +7383,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -7227,7 +7391,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -7235,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -7243,7 +7407,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -7251,7 +7415,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -7259,7 +7423,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -7267,7 +7431,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -7275,7 +7439,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -7283,7 +7447,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -7291,7 +7455,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="4:5">
@@ -7299,7 +7463,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -7307,7 +7471,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="4:5">
@@ -7315,7 +7479,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="4:5">
@@ -7323,7 +7487,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -158,14 +158,14 @@
     <t>テストステージ</t>
   </si>
   <si>
-    <t>&lt;中難度&gt;サバイバル</t>
+    <t>&lt;高難度&gt;サバイバル</t>
   </si>
   <si>
     <t>クリアデータのアクターを使って
-中難度のステージに挑めます。
+高難度のステージに挑めます。
 特殊ルール：
-救済執行成功時にHPとMP全回復
-※救済執行に失敗するとゲームオーバー
+救済執行に成功するとHPとMP全回復
+救済執行に失敗するとゲームオーバー
 ※クリアデータは終了時には保存できません。</t>
   </si>
   <si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>上位者ボスを設置する(コマンド制限判定あり)</t>
+  </si>
+  <si>
+    <t>サバイバルモードにする</t>
   </si>
 </sst>
 </file>
@@ -273,9 +276,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -284,14 +287,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,6 +304,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -316,17 +327,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,11 +374,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,15 +411,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,39 +427,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,19 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,37 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,17 +634,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,6 +648,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,6 +694,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,15 +716,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,13 +1695,14 @@
   <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1960,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -2016,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>4</v>
@@ -2128,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -2184,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -2249,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -2331,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -2352,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -2382,10 +2386,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A131" sqref="$A131:$XFD131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6588,6 +6592,34 @@
       </c>
       <c r="H146">
         <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <f>INDEX(Define!B:B,MATCH(C147,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E147">
+        <v>201</v>
+      </c>
+      <c r="F147" t="str">
+        <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
+        <v>サバイバルモードにする</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7248,10 +7280,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -7490,6 +7522,14 @@
         <v>76</v>
       </c>
     </row>
+    <row r="25" spans="4:5">
+      <c r="D25">
+        <v>201</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -276,8 +276,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -290,43 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -335,17 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +312,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -368,22 +335,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,6 +363,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -411,10 +380,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,8 +412,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +443,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,37 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +533,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,43 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,36 +627,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -634,6 +634,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,17 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,21 +685,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -720,17 +724,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2241,7 +2241,7 @@
         <v>3000</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>3000</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2386,10 +2386,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4947,27 +4947,27 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="str">
         <f>INDEX(Define!B:B,MATCH(C89,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F89" t="str">
         <f>INDEX(Define!E:E,MATCH(E89,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>継承スキル演出開始</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4975,7 +4975,7 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         <v>101</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5059,27 +5059,27 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX(Define!B:B,MATCH(C93,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
         <f>INDEX(Define!E:E,MATCH(E93,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G93">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5090,24 +5090,24 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D94" t="str">
         <f>INDEX(Define!B:B,MATCH(C94,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F94" t="str">
         <f>INDEX(Define!E:E,MATCH(E94,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5132,7 +5132,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5209,52 +5209,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="str">
         <f>INDEX(Define!E:E,MATCH(E98,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX(Define!B:B,MATCH(C99,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F99" t="str">
         <f>INDEX(Define!E:E,MATCH(E99,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G99">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G99,[1]Advs!A:A))</f>
-        <v>Event2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>101</v>
       </c>
@@ -5262,18 +5258,18 @@
         <v>7</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D100" t="str">
         <f>INDEX(Define!B:B,MATCH(C100,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E100">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F100" t="str">
         <f>INDEX(Define!E:E,MATCH(E100,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>ADV再生</v>
       </c>
       <c r="G100">
         <v>102</v>
@@ -5281,13 +5277,17 @@
       <c r="H100">
         <v>1</v>
       </c>
+      <c r="I100" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G100,[1]Advs!A:A))</f>
+        <v>Event2</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5297,14 +5297,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F101" t="str">
         <f>INDEX(Define!E:E,MATCH(E101,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5325,17 +5325,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F102" t="str">
         <f>INDEX(Define!E:E,MATCH(E102,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5353,11 +5353,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F103" t="str">
         <f>INDEX(Define!E:E,MATCH(E103,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5381,20 +5381,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104" t="str">
         <f>INDEX(Define!E:E,MATCH(E104,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>102</v>
       </c>
@@ -5409,29 +5409,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F105" t="str">
         <f>INDEX(Define!E:E,MATCH(E105,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G105">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G105,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>102</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5441,49 +5437,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E106">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F106" t="str">
         <f>INDEX(Define!E:E,MATCH(E106,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ADV再生</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I106" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G106,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>102</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107" t="str">
         <f>INDEX(Define!B:B,MATCH(C107,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E107">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F107" t="str">
         <f>INDEX(Define!E:E,MATCH(E107,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G107">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G107,[1]Advs!A:A))</f>
-        <v>Event3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5501,24 +5497,24 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" t="str">
         <f>INDEX(Define!E:E,MATCH(E108,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ADV再生</v>
       </c>
       <c r="G108">
-        <v>3000</v>
+        <v>103</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G108,[1]Advs!A:A))</f>
-        <v>Actor0007_2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>Event3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>102</v>
       </c>
@@ -5526,32 +5522,36 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX(Define!B:B,MATCH(C109,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E109">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F109" t="str">
         <f>INDEX(Define!E:E,MATCH(E109,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G109">
-        <v>103</v>
+        <v>3000</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:8">
+      <c r="I109" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G109,[1]Advs!A:A))</f>
+        <v>Actor0007_2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5561,20 +5561,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F110" t="str">
         <f>INDEX(Define!E:E,MATCH(E110,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" customHeight="1" spans="1:8">
       <c r="A111">
         <v>103</v>
       </c>
@@ -5589,17 +5589,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111" t="str">
         <f>INDEX(Define!E:E,MATCH(E111,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5617,17 +5617,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F112" t="str">
         <f>INDEX(Define!E:E,MATCH(E112,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5635,7 +5635,7 @@
         <v>103</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5645,52 +5645,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E113">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F113" t="str">
         <f>INDEX(Define!E:E,MATCH(E113,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>103</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX(Define!B:B,MATCH(C114,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F114" t="str">
         <f>INDEX(Define!E:E,MATCH(E114,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G114">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G114,[1]Advs!A:A))</f>
-        <v>Actor0007_3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>103</v>
       </c>
@@ -5698,32 +5694,36 @@
         <v>7</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D115" t="str">
         <f>INDEX(Define!B:B,MATCH(C115,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E115">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F115" t="str">
         <f>INDEX(Define!E:E,MATCH(E115,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G115">
-        <v>104</v>
+        <v>4000</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
+      <c r="I115" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G115,[1]Advs!A:A))</f>
+        <v>Actor0007_3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5733,20 +5733,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F116" t="str">
         <f>INDEX(Define!E:E,MATCH(E116,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" customHeight="1" spans="1:8">
       <c r="A117">
         <v>104</v>
       </c>
@@ -5761,17 +5761,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F117" t="str">
         <f>INDEX(Define!E:E,MATCH(E117,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5789,17 +5789,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F118" t="str">
         <f>INDEX(Define!E:E,MATCH(E118,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5807,7 +5807,7 @@
         <v>104</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5817,17 +5817,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E119">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F119" t="str">
         <f>INDEX(Define!E:E,MATCH(E119,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5835,7 +5835,7 @@
         <v>104</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5845,25 +5845,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E120">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F120" t="str">
         <f>INDEX(Define!E:E,MATCH(E120,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G120">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5873,20 +5873,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F121" t="str">
         <f>INDEX(Define!E:E,MATCH(E121,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" customHeight="1" spans="1:8">
       <c r="A122">
         <v>105</v>
       </c>
@@ -5901,17 +5901,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F122" t="str">
         <f>INDEX(Define!E:E,MATCH(E122,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5929,17 +5929,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F123" t="str">
         <f>INDEX(Define!E:E,MATCH(E123,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5947,7 +5947,7 @@
         <v>105</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5957,17 +5957,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E124">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F124" t="str">
         <f>INDEX(Define!E:E,MATCH(E124,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5975,7 +5975,7 @@
         <v>105</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5985,25 +5985,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E125">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F125" t="str">
         <f>INDEX(Define!E:E,MATCH(E125,Define!D:D))</f>
-        <v>ステージ移動</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G125">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6013,52 +6013,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F126" t="str">
         <f>INDEX(Define!E:E,MATCH(E126,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ステージ移動</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>106</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127" t="str">
         <f>INDEX(Define!B:B,MATCH(C127,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E127">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F127" t="str">
         <f>INDEX(Define!E:E,MATCH(E127,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G127">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G127,[1]Advs!A:A))</f>
-        <v>Actor0007_4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>106</v>
       </c>
@@ -6066,24 +6062,28 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D128" t="str">
         <f>INDEX(Define!B:B,MATCH(C128,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E128">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F128" t="str">
         <f>INDEX(Define!E:E,MATCH(E128,Define!D:D))</f>
-        <v>中ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I128" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G128,[1]Advs!A:A))</f>
+        <v>Actor0007_4</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6101,17 +6101,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E129">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F129" t="str">
         <f>INDEX(Define!E:E,MATCH(E129,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>中ボスを設置する(コマンド制限判定あり)</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6119,24 +6119,24 @@
         <v>106</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D130" t="str">
         <f>INDEX(Define!B:B,MATCH(C130,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E130">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F130" t="str">
         <f>INDEX(Define!E:E,MATCH(E130,Define!D:D))</f>
-        <v>ルート分岐ステージ移動</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G130">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -6150,21 +6150,21 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D131" t="str">
         <f>INDEX(Define!B:B,MATCH(C131,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F131" t="str">
         <f>INDEX(Define!E:E,MATCH(E131,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐ステージ移動</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6185,14 +6185,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E132">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F132" t="str">
         <f>INDEX(Define!E:E,MATCH(E132,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G132">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -6213,14 +6213,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E133">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" t="str">
         <f>INDEX(Define!E:E,MATCH(E133,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -6241,17 +6241,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F134" t="str">
         <f>INDEX(Define!E:E,MATCH(E134,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6276,7 +6276,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6353,14 +6353,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138" t="str">
         <f>INDEX(Define!E:E,MATCH(E138,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6381,17 +6381,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E139">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F139" t="str">
         <f>INDEX(Define!E:E,MATCH(E139,Define!D:D))</f>
-        <v>表示残りターンをマスターから取得</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6409,14 +6409,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E140">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F140" t="str">
         <f>INDEX(Define!E:E,MATCH(E140,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>表示残りターンをマスターから取得</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -6427,7 +6427,7 @@
         <v>112</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>112</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>112</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -6506,39 +6506,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>112</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D144" t="str">
         <f>INDEX(Define!B:B,MATCH(C144,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E144">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F144" t="str">
         <f>INDEX(Define!E:E,MATCH(E144,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G144">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
-      <c r="I144" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G144,[1]Advs!A:A))</f>
-        <v>Ending</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>112</v>
       </c>
@@ -6546,24 +6542,28 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D145" t="str">
         <f>INDEX(Define!B:B,MATCH(C145,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E145">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F145" t="str">
         <f>INDEX(Define!E:E,MATCH(E145,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>ADV再生</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H145">
         <v>1</v>
+      </c>
+      <c r="I145" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G145,[1]Advs!A:A))</f>
+        <v>Ending</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6571,7 +6571,7 @@
         <v>112</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6581,25 +6581,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E146">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F146" t="str">
         <f>INDEX(Define!E:E,MATCH(E146,Define!D:D))</f>
-        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -6609,16 +6609,44 @@
         <v>Tactics開始</v>
       </c>
       <c r="E147">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="F147" t="str">
         <f>INDEX(Define!E:E,MATCH(E147,Define!D:D))</f>
+        <v>上位者ボスを設置する(コマンド制限判定あり)</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>201</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <f>INDEX(Define!B:B,MATCH(C148,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E148">
+        <v>201</v>
+      </c>
+      <c r="F148" t="str">
+        <f>INDEX(Define!E:E,MATCH(E148,Define!D:D))</f>
         <v>サバイバルモードにする</v>
       </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -290,52 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +306,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,17 +333,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,11 +364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,6 +380,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -419,8 +395,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +422,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +443,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,151 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,8 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,15 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -685,16 +676,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -709,16 +700,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -742,19 +742,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,124 +763,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,7 +2388,7 @@
   <sheetPr/>
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -6661,8 +6661,8 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -6889,10 +6889,10 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>-264</v>
+        <v>-232</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>216</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,13 @@
     <t>&lt;高難度&gt;サバイバル</t>
   </si>
   <si>
-    <t>クリアデータのアクターを使って
-高難度のステージに挑めます。
+    <t>クリアデータを使ってステージに挑みます。
 特殊ルール：
-救済執行に成功するとHPとMP全回復
+アルカナ・思念継承使用不可
+救済執行以外のコマンドが封鎖
+救済執行に成功するとHPとMPが20回復
 救済執行に失敗するとゲームオーバー
-※クリアデータは終了時には保存できません。</t>
+※終了時にクリアデータは保存できません。</t>
   </si>
   <si>
     <t>隷従属度を90以上獲得</t>
@@ -277,8 +278,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -291,7 +292,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,21 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,8 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -413,14 +422,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -428,7 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,31 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,25 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,25 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,15 +635,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,6 +664,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,21 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -742,7 +743,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,7 +752,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,28 +761,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,97 +791,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6661,7 +6662,7 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7146,7 +7147,7 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7244,7 +7245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="104" spans="1:3">
+    <row r="9" ht="117" spans="1:3">
       <c r="A9" s="1">
         <v>201</v>
       </c>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -292,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +305,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -315,6 +331,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -360,14 +376,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,15 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,13 +444,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,115 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +635,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,24 +679,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,13 +721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,145 +743,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" bo